--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,9 +24,9 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="205">
   <si>
     <t>PERIOD</t>
   </si>
@@ -631,19 +636,40 @@
   </si>
   <si>
     <t>7/24,27,28,29</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>11/24,25/2022</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>12/12-14/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1073,6 +1099,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,7 +1130,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1118,7 +1147,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1133,7 +1162,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1175,7 +1204,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1235,7 +1264,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1248,7 +1277,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1263,7 +1292,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1281,7 +1310,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1298,7 +1327,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1317,7 +1346,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1334,7 +1363,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1350,7 +1379,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1367,7 +1396,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1386,7 +1415,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1403,7 +1432,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1419,7 +1448,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1476,7 +1505,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1521,7 +1550,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1564,7 +1593,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1628,7 +1657,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1717,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1754,7 +1783,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,7 +1846,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1915,7 +1944,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1974,7 +2003,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2039,7 +2068,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2082,7 +2111,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2157,7 +2186,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2343,7 +2372,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2409,7 +2438,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2467,7 +2496,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2533,7 +2562,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2589,7 +2618,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2664,7 +2693,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2707,7 +2736,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2773,7 +2802,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2829,7 +2858,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2927,7 +2956,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2990,7 +3019,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3039,7 +3068,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3056,14 +3085,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K412" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K437" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
     <tableColumn id="3" name="EARNED" dataDxfId="18"/>
     <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
     <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
     <tableColumn id="7" name="EARNED " dataDxfId="14">
@@ -3071,7 +3100,7 @@
     </tableColumn>
     <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
     <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
     <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
@@ -3405,14 +3434,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3422,7 +3451,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3430,34 +3459,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K412"/>
+  <dimension ref="A2:K437"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1884" topLeftCell="A401" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A396" activePane="bottomLeft"/>
       <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="B409" sqref="B409"/>
+      <selection pane="bottomLeft" activeCell="C418" sqref="C418:C419"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3478,7 +3507,7 @@
       <c r="J2" s="58"/>
       <c r="K2" s="59"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3496,7 +3525,7 @@
       <c r="J3" s="60"/>
       <c r="K3" s="61"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3514,7 +3543,7 @@
       <c r="J4" s="62"/>
       <c r="K4" s="63"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3522,7 +3551,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3535,7 +3564,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="56" t="s">
@@ -3552,7 +3581,7 @@
       <c r="J7" s="56"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3587,7 +3616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3595,8 +3624,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>205.23100000000002</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>213.23100000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3605,13 +3634,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>209.417</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>214.417</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3633,7 +3662,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35217</v>
       </c>
@@ -3651,7 +3680,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <f>EDATE(A11,1)</f>
         <v>35247</v>
@@ -3672,7 +3701,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <f t="shared" ref="A13:A17" si="0">EDATE(A12,1)</f>
         <v>35278</v>
@@ -3693,7 +3722,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <f t="shared" si="0"/>
         <v>35309</v>
@@ -3714,7 +3743,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <f t="shared" si="0"/>
         <v>35339</v>
@@ -3735,7 +3764,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <f t="shared" si="0"/>
         <v>35370</v>
@@ -3756,7 +3785,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <f t="shared" si="0"/>
         <v>35400</v>
@@ -3777,7 +3806,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>44</v>
       </c>
@@ -3795,7 +3824,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35431</v>
       </c>
@@ -3815,7 +3844,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35462</v>
@@ -3842,7 +3871,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A31" si="1">EDATE(A20,1)</f>
         <v>35490</v>
@@ -3869,7 +3898,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -3889,7 +3918,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f>EDATE(A21,1)</f>
         <v>35521</v>
@@ -3910,7 +3939,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="1"/>
         <v>35551</v>
@@ -3931,7 +3960,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="1"/>
         <v>35582</v>
@@ -3952,7 +3981,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="1"/>
         <v>35612</v>
@@ -3973,7 +4002,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="1"/>
         <v>35643</v>
@@ -4000,7 +4029,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="1"/>
         <v>35674</v>
@@ -4027,7 +4056,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="1"/>
         <v>35704</v>
@@ -4048,7 +4077,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4075,7 +4104,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="1"/>
         <v>35765</v>
@@ -4100,7 +4129,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -4120,7 +4149,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>54</v>
       </c>
@@ -4138,7 +4167,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35796</v>
       </c>
@@ -4158,7 +4187,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A34,1)</f>
         <v>35827</v>
@@ -4185,7 +4214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" ref="A36:A45" si="2">EDATE(A35,1)</f>
         <v>35855</v>
@@ -4212,7 +4241,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="2"/>
         <v>35886</v>
@@ -4233,7 +4262,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="2"/>
         <v>35916</v>
@@ -4254,7 +4283,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="2"/>
         <v>35947</v>
@@ -4275,7 +4304,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="2"/>
         <v>35977</v>
@@ -4302,7 +4331,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="2"/>
         <v>36008</v>
@@ -4323,7 +4352,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="2"/>
         <v>36039</v>
@@ -4344,7 +4373,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="2"/>
         <v>36069</v>
@@ -4365,7 +4394,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="2"/>
         <v>36100</v>
@@ -4386,7 +4415,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="2"/>
         <v>36130</v>
@@ -4413,7 +4442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>60</v>
@@ -4435,7 +4464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>62</v>
       </c>
@@ -4453,7 +4482,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36161</v>
       </c>
@@ -4473,7 +4502,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A48,1)</f>
         <v>36192</v>
@@ -4494,7 +4523,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" ref="A50:A59" si="3">EDATE(A49,1)</f>
         <v>36220</v>
@@ -4515,7 +4544,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="3"/>
         <v>36251</v>
@@ -4536,7 +4565,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="3"/>
         <v>36281</v>
@@ -4557,7 +4586,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="3"/>
         <v>36312</v>
@@ -4578,7 +4607,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="3"/>
         <v>36342</v>
@@ -4599,7 +4628,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="3"/>
         <v>36373</v>
@@ -4626,7 +4655,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="3"/>
         <v>36404</v>
@@ -4647,7 +4676,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="3"/>
         <v>36434</v>
@@ -4668,7 +4697,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="3"/>
         <v>36465</v>
@@ -4695,7 +4724,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="3"/>
         <v>36495</v>
@@ -4716,7 +4745,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
         <v>65</v>
       </c>
@@ -4736,7 +4765,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36526</v>
       </c>
@@ -4756,7 +4785,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A61,1)</f>
         <v>36557</v>
@@ -4777,7 +4806,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" ref="A63:A72" si="4">EDATE(A62,1)</f>
         <v>36586</v>
@@ -4798,7 +4827,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="4"/>
         <v>36617</v>
@@ -4825,7 +4854,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="4"/>
         <v>36647</v>
@@ -4846,7 +4875,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="4"/>
         <v>36678</v>
@@ -4867,7 +4896,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="4"/>
         <v>36708</v>
@@ -4888,7 +4917,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="4"/>
         <v>36739</v>
@@ -4915,7 +4944,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="4"/>
         <v>36770</v>
@@ -4936,7 +4965,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="4"/>
         <v>36800</v>
@@ -4957,7 +4986,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>36831</v>
@@ -4978,7 +5007,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="4"/>
         <v>36861</v>
@@ -5003,7 +5032,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5019,7 +5048,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
         <v>70</v>
       </c>
@@ -5037,7 +5066,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36892</v>
       </c>
@@ -5061,7 +5090,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>36923</v>
@@ -5088,7 +5117,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A86" si="5">EDATE(A76,1)</f>
         <v>36951</v>
@@ -5109,7 +5138,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="5"/>
         <v>36982</v>
@@ -5130,7 +5159,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="5"/>
         <v>37012</v>
@@ -5151,7 +5180,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="5"/>
         <v>37043</v>
@@ -5172,7 +5201,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="5"/>
         <v>37073</v>
@@ -5193,7 +5222,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="5"/>
         <v>37104</v>
@@ -5214,7 +5243,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="5"/>
         <v>37135</v>
@@ -5239,7 +5268,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="5"/>
         <v>37165</v>
@@ -5260,7 +5289,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>37196</v>
@@ -5281,7 +5310,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="5"/>
         <v>37226</v>
@@ -5306,7 +5335,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>75</v>
       </c>
@@ -5324,7 +5353,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37257</v>
       </c>
@@ -5344,7 +5373,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>37288</v>
@@ -5365,7 +5394,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A99" si="6">EDATE(A89,1)</f>
         <v>37316</v>
@@ -5386,7 +5415,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="6"/>
         <v>37347</v>
@@ -5407,7 +5436,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="6"/>
         <v>37377</v>
@@ -5428,7 +5457,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="6"/>
         <v>37408</v>
@@ -5449,7 +5478,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="6"/>
         <v>37438</v>
@@ -5470,7 +5499,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="6"/>
         <v>37469</v>
@@ -5491,7 +5520,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="6"/>
         <v>37500</v>
@@ -5512,7 +5541,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="6"/>
         <v>37530</v>
@@ -5539,7 +5568,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="6"/>
         <v>37561</v>
@@ -5560,7 +5589,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="6"/>
         <v>37591</v>
@@ -5585,7 +5614,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>78</v>
       </c>
@@ -5603,7 +5632,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37622</v>
       </c>
@@ -5623,7 +5652,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A101,1)</f>
         <v>37653</v>
@@ -5644,7 +5673,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" ref="A103:A111" si="7">EDATE(A102,1)</f>
         <v>37681</v>
@@ -5669,7 +5698,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="7"/>
         <v>37712</v>
@@ -5694,7 +5723,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="7"/>
         <v>37742</v>
@@ -5715,7 +5744,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="7"/>
         <v>37773</v>
@@ -5736,7 +5765,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="7"/>
         <v>37803</v>
@@ -5757,7 +5786,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="7"/>
         <v>37834</v>
@@ -5778,7 +5807,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="7"/>
         <v>37865</v>
@@ -5799,7 +5828,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="7"/>
         <v>37895</v>
@@ -5820,7 +5849,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="7"/>
         <v>37926</v>
@@ -5841,7 +5870,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A111,1)</f>
         <v>37956</v>
@@ -5868,7 +5897,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>83</v>
@@ -5888,7 +5917,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>84</v>
       </c>
@@ -5906,7 +5935,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -5926,7 +5955,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A115,1)</f>
         <v>38018</v>
@@ -5947,7 +5976,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" ref="A117:A127" si="8">EDATE(A116,1)</f>
         <v>38047</v>
@@ -5968,7 +5997,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="8"/>
         <v>38078</v>
@@ -5989,7 +6018,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="8"/>
         <v>38108</v>
@@ -6010,7 +6039,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="8"/>
         <v>38139</v>
@@ -6037,7 +6066,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>87</v>
@@ -6057,7 +6086,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>38169</v>
@@ -6082,7 +6111,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="8"/>
         <v>38200</v>
@@ -6107,7 +6136,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="8"/>
         <v>38231</v>
@@ -6128,7 +6157,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="8"/>
         <v>38261</v>
@@ -6153,7 +6182,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="8"/>
         <v>38292</v>
@@ -6174,7 +6203,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="8"/>
         <v>38322</v>
@@ -6195,7 +6224,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
         <v>85</v>
       </c>
@@ -6213,7 +6242,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38353</v>
       </c>
@@ -6239,7 +6268,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A129,1)</f>
         <v>38384</v>
@@ -6260,7 +6289,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" ref="A131:A139" si="9">EDATE(A130,1)</f>
         <v>38412</v>
@@ -6281,7 +6310,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="9"/>
         <v>38443</v>
@@ -6302,7 +6331,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="9"/>
         <v>38473</v>
@@ -6323,7 +6352,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="9"/>
         <v>38504</v>
@@ -6344,7 +6373,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="9"/>
         <v>38534</v>
@@ -6365,7 +6394,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="9"/>
         <v>38565</v>
@@ -6386,7 +6415,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="9"/>
         <v>38596</v>
@@ -6411,7 +6440,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="9"/>
         <v>38626</v>
@@ -6438,7 +6467,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="9"/>
         <v>38657</v>
@@ -6459,7 +6488,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A139,1)</f>
         <v>38687</v>
@@ -6480,7 +6509,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
         <v>93</v>
       </c>
@@ -6498,7 +6527,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38718</v>
       </c>
@@ -6518,7 +6547,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A142,1)</f>
         <v>38749</v>
@@ -6539,7 +6568,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" ref="A144:A153" si="10">EDATE(A143,1)</f>
         <v>38777</v>
@@ -6560,7 +6589,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="15"/>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="10"/>
         <v>38808</v>
@@ -6581,7 +6610,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="15"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="10"/>
         <v>38838</v>
@@ -6602,7 +6631,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="10"/>
         <v>38869</v>
@@ -6623,7 +6652,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="10"/>
         <v>38899</v>
@@ -6644,7 +6673,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="10"/>
         <v>38930</v>
@@ -6671,7 +6700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
@@ -6691,7 +6720,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>38961</v>
@@ -6716,7 +6745,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="10"/>
         <v>38991</v>
@@ -6737,7 +6766,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="10"/>
         <v>39022</v>
@@ -6764,7 +6793,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>39052</v>
@@ -6785,7 +6814,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="47" t="s">
         <v>98</v>
       </c>
@@ -6803,7 +6832,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39083</v>
       </c>
@@ -6827,7 +6856,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A156,1)</f>
         <v>39114</v>
@@ -6852,7 +6881,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="15"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" ref="A158:A172" si="11">EDATE(A157,1)</f>
         <v>39142</v>
@@ -6877,7 +6906,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>48</v>
@@ -6897,7 +6926,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>39173</v>
@@ -6918,7 +6947,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="11"/>
         <v>39203</v>
@@ -6939,7 +6968,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="11"/>
         <v>39234</v>
@@ -6966,7 +6995,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>103</v>
@@ -6985,7 +7014,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>100</v>
@@ -7002,7 +7031,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>39264</v>
@@ -7023,7 +7052,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="11"/>
         <v>39295</v>
@@ -7048,7 +7077,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="11"/>
         <v>39326</v>
@@ -7069,7 +7098,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="11"/>
         <v>39356</v>
@@ -7096,7 +7125,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>57</v>
@@ -7115,7 +7144,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>69</v>
@@ -7134,7 +7163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A168,1)</f>
         <v>39387</v>
@@ -7161,7 +7190,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="11"/>
         <v>39417</v>
@@ -7188,7 +7217,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
         <v>113</v>
       </c>
@@ -7206,7 +7235,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39448</v>
       </c>
@@ -7226,7 +7255,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A174,1)</f>
         <v>39479</v>
@@ -7247,7 +7276,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" ref="A176:A185" si="12">EDATE(A175,1)</f>
         <v>39508</v>
@@ -7272,7 +7301,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="12"/>
         <v>39539</v>
@@ -7297,7 +7326,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="12"/>
         <v>39569</v>
@@ -7318,7 +7347,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="12"/>
         <v>39600</v>
@@ -7339,7 +7368,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="12"/>
         <v>39630</v>
@@ -7360,7 +7389,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="12"/>
         <v>39661</v>
@@ -7381,7 +7410,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="12"/>
         <v>39692</v>
@@ -7406,7 +7435,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>57</v>
@@ -7425,7 +7454,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A182,1)</f>
         <v>39722</v>
@@ -7452,7 +7481,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="12"/>
         <v>39753</v>
@@ -7473,7 +7502,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A185,1)</f>
         <v>39783</v>
@@ -7498,7 +7527,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
         <v>118</v>
       </c>
@@ -7516,7 +7545,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39814</v>
       </c>
@@ -7536,7 +7565,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A188,1)</f>
         <v>39845</v>
@@ -7557,7 +7586,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" ref="A190:A201" si="13">EDATE(A189,1)</f>
         <v>39873</v>
@@ -7578,7 +7607,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="13"/>
         <v>39904</v>
@@ -7603,7 +7632,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="13"/>
         <v>39934</v>
@@ -7624,7 +7653,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="13"/>
         <v>39965</v>
@@ -7645,7 +7674,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="13"/>
         <v>39995</v>
@@ -7666,7 +7695,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="13"/>
         <v>40026</v>
@@ -7687,7 +7716,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="13"/>
         <v>40057</v>
@@ -7714,7 +7743,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>74</v>
@@ -7733,7 +7762,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>119</v>
@@ -7752,7 +7781,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f>EDATE(A196,1)</f>
         <v>40087</v>
@@ -7773,7 +7802,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>40118</v>
@@ -7794,7 +7823,7 @@
       <c r="J200" s="12"/>
       <c r="K200" s="15"/>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="13"/>
         <v>40148</v>
@@ -7815,7 +7844,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>122</v>
       </c>
@@ -7833,7 +7862,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40179</v>
       </c>
@@ -7857,7 +7886,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>40210</v>
@@ -7884,7 +7913,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>116</v>
@@ -7904,7 +7933,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A204,1)</f>
         <v>40238</v>
@@ -7929,7 +7958,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A216" si="14">EDATE(A206,1)</f>
         <v>40269</v>
@@ -7952,7 +7981,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="14"/>
         <v>40299</v>
@@ -7979,7 +8008,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>127</v>
@@ -7999,7 +8028,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A208,1)</f>
         <v>40330</v>
@@ -8026,7 +8055,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="14"/>
         <v>40360</v>
@@ -8053,7 +8082,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="14"/>
         <v>40391</v>
@@ -8074,7 +8103,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="14"/>
         <v>40422</v>
@@ -8095,7 +8124,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="14"/>
         <v>40452</v>
@@ -8116,7 +8145,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="14"/>
         <v>40483</v>
@@ -8137,7 +8166,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="14"/>
         <v>40513</v>
@@ -8158,7 +8187,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="47" t="s">
         <v>130</v>
       </c>
@@ -8176,7 +8205,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="52">
         <v>40544</v>
       </c>
@@ -8196,7 +8225,7 @@
       <c r="J218" s="12"/>
       <c r="K218" s="15"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A218,1)</f>
         <v>40575</v>
@@ -8217,7 +8246,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A227" si="15">EDATE(A219,1)</f>
         <v>40603</v>
@@ -8238,7 +8267,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="15"/>
         <v>40634</v>
@@ -8265,7 +8294,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="15"/>
         <v>40664</v>
@@ -8286,7 +8315,7 @@
       <c r="J222" s="12"/>
       <c r="K222" s="15"/>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="15"/>
         <v>40695</v>
@@ -8307,7 +8336,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="15"/>
         <v>40725</v>
@@ -8332,7 +8361,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="15"/>
         <v>40756</v>
@@ -8357,7 +8386,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="15"/>
         <v>40787</v>
@@ -8378,7 +8407,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="15"/>
         <v>40817</v>
@@ -8405,7 +8434,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>133</v>
@@ -8424,7 +8453,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>134</v>
@@ -8441,7 +8470,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A227,1)</f>
         <v>40848</v>
@@ -8462,7 +8491,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A230,1)</f>
         <v>40878</v>
@@ -8483,7 +8512,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="47" t="s">
         <v>137</v>
       </c>
@@ -8501,7 +8530,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40909</v>
       </c>
@@ -8521,7 +8550,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A233,1)</f>
         <v>40940</v>
@@ -8546,7 +8575,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" ref="A235:A246" si="16">EDATE(A234,1)</f>
         <v>40969</v>
@@ -8573,7 +8602,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>48</v>
@@ -8593,7 +8622,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>41000</v>
@@ -8614,7 +8643,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="16"/>
         <v>41030</v>
@@ -8639,7 +8668,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>116</v>
@@ -8656,7 +8685,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A238,1)</f>
         <v>41061</v>
@@ -8677,7 +8706,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="16"/>
         <v>41091</v>
@@ -8698,7 +8727,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="16"/>
         <v>41122</v>
@@ -8719,7 +8748,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="16"/>
         <v>41153</v>
@@ -8746,7 +8775,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="16"/>
         <v>41183</v>
@@ -8767,7 +8796,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="16"/>
         <v>41214</v>
@@ -8788,7 +8817,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="16"/>
         <v>41244</v>
@@ -8809,7 +8838,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>142</v>
       </c>
@@ -8827,7 +8856,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41275</v>
       </c>
@@ -8847,7 +8876,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f>EDATE(A248,1)</f>
         <v>41306</v>
@@ -8872,7 +8901,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" ref="A250:A261" si="17">EDATE(A249,1)</f>
         <v>41334</v>
@@ -8893,7 +8922,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="17"/>
         <v>41365</v>
@@ -8918,7 +8947,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="17"/>
         <v>41395</v>
@@ -8939,7 +8968,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="17"/>
         <v>41426</v>
@@ -8960,7 +8989,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="17"/>
         <v>41456</v>
@@ -8981,7 +9010,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="17"/>
         <v>41487</v>
@@ -9002,7 +9031,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="17"/>
         <v>41518</v>
@@ -9027,7 +9056,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>49</v>
@@ -9046,7 +9075,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>50</v>
@@ -9065,7 +9094,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>41548</v>
@@ -9086,7 +9115,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="17"/>
         <v>41579</v>
@@ -9113,7 +9142,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="17"/>
         <v>41609</v>
@@ -9134,7 +9163,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
         <v>146</v>
       </c>
@@ -9152,7 +9181,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>41640</v>
       </c>
@@ -9176,7 +9205,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>41671</v>
@@ -9197,7 +9226,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A275" si="18">EDATE(A264,1)</f>
         <v>41699</v>
@@ -9224,7 +9253,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="18"/>
         <v>41730</v>
@@ -9249,7 +9278,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="18"/>
         <v>41760</v>
@@ -9270,7 +9299,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="18"/>
         <v>41791</v>
@@ -9291,7 +9320,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="18"/>
         <v>41821</v>
@@ -9312,7 +9341,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="18"/>
         <v>41852</v>
@@ -9339,7 +9368,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>48</v>
@@ -9356,7 +9385,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>41883</v>
@@ -9377,7 +9406,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="18"/>
         <v>41913</v>
@@ -9400,7 +9429,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="18"/>
         <v>41944</v>
@@ -9427,7 +9456,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="18"/>
         <v>41974</v>
@@ -9448,7 +9477,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
         <v>149</v>
       </c>
@@ -9466,7 +9495,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42005</v>
       </c>
@@ -9486,7 +9515,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A277,1)</f>
         <v>42036</v>
@@ -9507,7 +9536,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" ref="A279:A290" si="19">EDATE(A278,1)</f>
         <v>42064</v>
@@ -9532,7 +9561,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>48</v>
@@ -9552,7 +9581,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A279,1)</f>
         <v>42095</v>
@@ -9573,7 +9602,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="19"/>
         <v>42125</v>
@@ -9594,7 +9623,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="19"/>
         <v>42156</v>
@@ -9621,7 +9650,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="19"/>
         <v>42186</v>
@@ -9642,7 +9671,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="19"/>
         <v>42217</v>
@@ -9669,7 +9698,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>48</v>
@@ -9689,7 +9718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>42248</v>
@@ -9710,7 +9739,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A287,1)</f>
         <v>42278</v>
@@ -9731,7 +9760,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="19"/>
         <v>42309</v>
@@ -9758,7 +9787,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="19"/>
         <v>42339</v>
@@ -9779,7 +9808,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="47" t="s">
         <v>154</v>
       </c>
@@ -9797,7 +9826,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42370</v>
       </c>
@@ -9817,7 +9846,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A292,1)</f>
         <v>42401</v>
@@ -9838,7 +9867,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" ref="A294:A303" si="20">EDATE(A293,1)</f>
         <v>42430</v>
@@ -9859,7 +9888,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="20"/>
         <v>42461</v>
@@ -9884,7 +9913,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="20"/>
         <v>42491</v>
@@ -9905,7 +9934,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="20"/>
         <v>42522</v>
@@ -9926,7 +9955,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="20"/>
         <v>42552</v>
@@ -9947,7 +9976,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="20"/>
         <v>42583</v>
@@ -9968,7 +9997,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="20"/>
         <v>42614</v>
@@ -9989,7 +10018,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="20"/>
         <v>42644</v>
@@ -10010,7 +10039,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="20"/>
         <v>42675</v>
@@ -10037,7 +10066,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="20"/>
         <v>42705</v>
@@ -10058,7 +10087,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="47" t="s">
         <v>157</v>
       </c>
@@ -10076,7 +10105,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>42736</v>
       </c>
@@ -10102,7 +10131,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A305,1)</f>
         <v>42767</v>
@@ -10123,7 +10152,7 @@
       <c r="J306" s="12"/>
       <c r="K306" s="15"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A315" si="21">EDATE(A306,1)</f>
         <v>42795</v>
@@ -10144,7 +10173,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="21"/>
         <v>42826</v>
@@ -10169,7 +10198,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>124</v>
@@ -10191,7 +10220,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>42856</v>
@@ -10218,7 +10247,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" si="21"/>
         <v>42887</v>
@@ -10239,7 +10268,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="21"/>
         <v>42917</v>
@@ -10260,7 +10289,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="21"/>
         <v>42948</v>
@@ -10285,7 +10314,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="21"/>
         <v>42979</v>
@@ -10306,7 +10335,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="21"/>
         <v>43009</v>
@@ -10327,7 +10356,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A315,1)</f>
         <v>43040</v>
@@ -10354,7 +10383,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>74</v>
@@ -10373,7 +10402,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>43070</v>
@@ -10400,7 +10429,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="47" t="s">
         <v>164</v>
       </c>
@@ -10418,7 +10447,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43101</v>
       </c>
@@ -10442,7 +10471,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A320,1)</f>
         <v>43132</v>
@@ -10463,7 +10492,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" ref="A322:A335" si="22">EDATE(A321,1)</f>
         <v>43160</v>
@@ -10484,7 +10513,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="22"/>
         <v>43191</v>
@@ -10509,7 +10538,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>166</v>
@@ -10528,7 +10557,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>49</v>
@@ -10547,7 +10576,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>49</v>
@@ -10566,7 +10595,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A323,1)</f>
         <v>43221</v>
@@ -10587,7 +10616,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="22"/>
         <v>43252</v>
@@ -10608,7 +10637,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="22"/>
         <v>43282</v>
@@ -10635,7 +10664,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10657,7 +10686,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>43313</v>
@@ -10678,7 +10707,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="22"/>
         <v>43344</v>
@@ -10699,7 +10728,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A332,1)</f>
         <v>43374</v>
@@ -10720,7 +10749,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="22"/>
         <v>43405</v>
@@ -10741,7 +10770,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="22"/>
         <v>43435</v>
@@ -10768,7 +10797,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>57</v>
@@ -10788,7 +10817,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>49</v>
@@ -10810,7 +10839,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>57</v>
@@ -10832,7 +10861,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>45</v>
@@ -10854,7 +10883,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>168</v>
@@ -10874,7 +10903,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="47" t="s">
         <v>171</v>
       </c>
@@ -10892,7 +10921,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43466</v>
       </c>
@@ -10912,7 +10941,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f>EDATE(A342,1)</f>
         <v>43497</v>
@@ -10933,7 +10962,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" ref="A344:A364" si="23">EDATE(A343,1)</f>
         <v>43525</v>
@@ -10960,7 +10989,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>48</v>
@@ -10977,7 +11006,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>60</v>
@@ -10996,7 +11025,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A344,1)</f>
         <v>43556</v>
@@ -11021,7 +11050,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="23"/>
         <v>43586</v>
@@ -11048,7 +11077,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>49</v>
@@ -11067,7 +11096,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>47</v>
@@ -11086,7 +11115,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>43617</v>
@@ -11113,7 +11142,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>49</v>
@@ -11132,7 +11161,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>57</v>
@@ -11151,7 +11180,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>43647</v>
@@ -11178,7 +11207,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>176</v>
@@ -11197,7 +11226,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A354,1)</f>
         <v>43678</v>
@@ -11224,7 +11253,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="23"/>
         <v>43709</v>
@@ -11251,7 +11280,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>49</v>
@@ -11270,7 +11299,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>50</v>
@@ -11289,7 +11318,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>57</v>
@@ -11308,7 +11337,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>49</v>
@@ -11327,7 +11356,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A357,1)</f>
         <v>43739</v>
@@ -11348,7 +11377,7 @@
       <c r="J362" s="12"/>
       <c r="K362" s="15"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f t="shared" si="23"/>
         <v>43770</v>
@@ -11369,7 +11398,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="23"/>
         <v>43800</v>
@@ -11390,7 +11419,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="47" t="s">
         <v>180</v>
       </c>
@@ -11408,7 +11437,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>43831</v>
       </c>
@@ -11432,7 +11461,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A366,1)</f>
         <v>43862</v>
@@ -11453,7 +11482,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f t="shared" ref="A368:A381" si="24">EDATE(A367,1)</f>
         <v>43891</v>
@@ -11474,7 +11503,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="24"/>
         <v>43922</v>
@@ -11499,7 +11528,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f t="shared" si="24"/>
         <v>43952</v>
@@ -11520,7 +11549,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="24"/>
         <v>43983</v>
@@ -11545,7 +11574,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>57</v>
@@ -11567,7 +11596,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A371,1)</f>
         <v>44013</v>
@@ -11588,7 +11617,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="24"/>
         <v>44044</v>
@@ -11609,7 +11638,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f>EDATE(A374,1)</f>
         <v>44075</v>
@@ -11636,7 +11665,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>49</v>
@@ -11655,7 +11684,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>119</v>
@@ -11674,7 +11703,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>66</v>
@@ -11696,7 +11725,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A375,1)</f>
         <v>44105</v>
@@ -11717,7 +11746,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="24"/>
         <v>44136</v>
@@ -11738,7 +11767,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="24"/>
         <v>44166</v>
@@ -11759,7 +11788,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="47" t="s">
         <v>187</v>
       </c>
@@ -11777,7 +11806,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44197</v>
       </c>
@@ -11801,7 +11830,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A383,1)</f>
         <v>44228</v>
@@ -11822,7 +11851,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" ref="A385:A393" si="25">EDATE(A384,1)</f>
         <v>44256</v>
@@ -11843,7 +11872,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="25"/>
         <v>44287</v>
@@ -11864,7 +11893,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="25"/>
         <v>44317</v>
@@ -11885,7 +11914,7 @@
       <c r="J387" s="12"/>
       <c r="K387" s="15"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="25"/>
         <v>44348</v>
@@ -11910,7 +11939,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="25"/>
         <v>44378</v>
@@ -11931,7 +11960,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="25"/>
         <v>44409</v>
@@ -11952,7 +11981,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="25"/>
         <v>44440</v>
@@ -11979,7 +12008,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A391,1)</f>
         <v>44470</v>
@@ -12000,7 +12029,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="25"/>
         <v>44501</v>
@@ -12027,7 +12056,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>66</v>
@@ -12049,7 +12078,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>44531</v>
@@ -12074,7 +12103,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
         <v>193</v>
       </c>
@@ -12092,7 +12121,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>44562</v>
       </c>
@@ -12112,7 +12141,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>44593</v>
@@ -12133,7 +12162,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A403" si="26">EDATE(A398,1)</f>
         <v>44621</v>
@@ -12154,7 +12183,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="26"/>
         <v>44652</v>
@@ -12179,7 +12208,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="26"/>
         <v>44682</v>
@@ -12200,7 +12229,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="26"/>
         <v>44713</v>
@@ -12221,7 +12250,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="26"/>
         <v>44743</v>
@@ -12248,7 +12277,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>49</v>
@@ -12265,7 +12294,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>50</v>
@@ -12282,7 +12311,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="15" t="s">
         <v>60</v>
@@ -12299,7 +12328,7 @@
       <c r="J406" s="12"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>47</v>
@@ -12318,7 +12347,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>47</v>
@@ -12337,57 +12366,535 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="409" spans="1:11">
-      <c r="A409" s="52"/>
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A409" s="52">
+        <v>44774</v>
+      </c>
       <c r="B409" s="15"/>
-      <c r="C409" s="41"/>
+      <c r="C409" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D409" s="42"/>
       <c r="E409" s="53"/>
       <c r="F409" s="15"/>
-      <c r="G409" s="41"/>
+      <c r="G409" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H409" s="42"/>
       <c r="I409" s="53"/>
       <c r="J409" s="12"/>
       <c r="K409" s="15"/>
     </row>
-    <row r="410" spans="1:11">
-      <c r="A410" s="40"/>
-      <c r="B410" s="20"/>
-      <c r="C410" s="13"/>
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A410" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B410" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C410" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D410" s="39"/>
       <c r="E410" s="9"/>
       <c r="F410" s="20"/>
-      <c r="G410" s="13"/>
+      <c r="G410" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H410" s="39"/>
       <c r="I410" s="9"/>
       <c r="J410" s="11"/>
-      <c r="K410" s="20"/>
-    </row>
-    <row r="411" spans="1:11">
-      <c r="A411" s="40"/>
+      <c r="K410" s="51">
+        <v>44816</v>
+      </c>
+    </row>
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A411" s="40">
+        <v>44835</v>
+      </c>
       <c r="B411" s="20"/>
-      <c r="C411" s="13"/>
+      <c r="C411" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D411" s="39"/>
       <c r="E411" s="9"/>
       <c r="F411" s="20"/>
-      <c r="G411" s="13"/>
+      <c r="G411" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H411" s="39"/>
       <c r="I411" s="9"/>
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11">
-      <c r="A412" s="52"/>
-      <c r="B412" s="15"/>
-      <c r="C412" s="41"/>
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A412" s="52">
+        <v>44866</v>
+      </c>
+      <c r="B412" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D412" s="42"/>
       <c r="E412" s="53"/>
       <c r="F412" s="15"/>
-      <c r="G412" s="41"/>
-      <c r="H412" s="42"/>
+      <c r="G412" s="41">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H412" s="42">
+        <v>1</v>
+      </c>
       <c r="I412" s="53"/>
       <c r="J412" s="12"/>
-      <c r="K412" s="15"/>
+      <c r="K412" s="68">
+        <v>44862</v>
+      </c>
+    </row>
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A413" s="52"/>
+      <c r="B413" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="C413" s="13"/>
+      <c r="D413" s="42">
+        <v>2</v>
+      </c>
+      <c r="E413" s="53"/>
+      <c r="F413" s="15"/>
+      <c r="G413" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H413" s="42"/>
+      <c r="I413" s="53"/>
+      <c r="J413" s="12"/>
+      <c r="K413" s="68" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A414" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B414" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C414" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D414" s="39"/>
+      <c r="E414" s="9"/>
+      <c r="F414" s="20"/>
+      <c r="G414" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H414" s="39">
+        <v>3</v>
+      </c>
+      <c r="I414" s="9"/>
+      <c r="J414" s="11"/>
+      <c r="K414" s="20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A415" s="40"/>
+      <c r="B415" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C415" s="13"/>
+      <c r="D415" s="39"/>
+      <c r="E415" s="9"/>
+      <c r="F415" s="20"/>
+      <c r="G415" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H415" s="39">
+        <v>1</v>
+      </c>
+      <c r="I415" s="9"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="51">
+        <v>44924</v>
+      </c>
+    </row>
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A416" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="B416" s="20"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="39"/>
+      <c r="E416" s="9"/>
+      <c r="F416" s="20"/>
+      <c r="G416" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H416" s="39"/>
+      <c r="I416" s="9"/>
+      <c r="J416" s="11"/>
+      <c r="K416" s="20"/>
+    </row>
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A417" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B417" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D417" s="39"/>
+      <c r="E417" s="9"/>
+      <c r="F417" s="20"/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H417" s="39"/>
+      <c r="I417" s="9"/>
+      <c r="J417" s="11"/>
+      <c r="K417" s="51">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A418" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B418" s="20"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D418" s="39"/>
+      <c r="E418" s="9"/>
+      <c r="F418" s="20"/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H418" s="39"/>
+      <c r="I418" s="9"/>
+      <c r="J418" s="11"/>
+      <c r="K418" s="20"/>
+    </row>
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A419" s="40">
+        <v>44986</v>
+      </c>
+      <c r="B419" s="20"/>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D419" s="39"/>
+      <c r="E419" s="9"/>
+      <c r="F419" s="20"/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H419" s="39"/>
+      <c r="I419" s="9"/>
+      <c r="J419" s="11"/>
+      <c r="K419" s="20"/>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A420" s="40"/>
+      <c r="B420" s="20"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="39"/>
+      <c r="E420" s="9"/>
+      <c r="F420" s="20"/>
+      <c r="G420" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H420" s="39"/>
+      <c r="I420" s="9"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="20"/>
+    </row>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A421" s="40"/>
+      <c r="B421" s="20"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="39"/>
+      <c r="E421" s="9"/>
+      <c r="F421" s="20"/>
+      <c r="G421" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H421" s="39"/>
+      <c r="I421" s="9"/>
+      <c r="J421" s="11"/>
+      <c r="K421" s="20"/>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A422" s="40"/>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="39"/>
+      <c r="E422" s="9"/>
+      <c r="F422" s="20"/>
+      <c r="G422" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H422" s="39"/>
+      <c r="I422" s="9"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="40"/>
+      <c r="B423" s="20"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="39"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="20"/>
+      <c r="G423" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="39"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="20"/>
+    </row>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A424" s="40"/>
+      <c r="B424" s="20"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="39"/>
+      <c r="E424" s="9"/>
+      <c r="F424" s="20"/>
+      <c r="G424" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H424" s="39"/>
+      <c r="I424" s="9"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="20"/>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40"/>
+      <c r="B425" s="20"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="39"/>
+      <c r="E425" s="9"/>
+      <c r="F425" s="20"/>
+      <c r="G425" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H425" s="39"/>
+      <c r="I425" s="9"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="20"/>
+    </row>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A426" s="40"/>
+      <c r="B426" s="20"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="39"/>
+      <c r="E426" s="9"/>
+      <c r="F426" s="20"/>
+      <c r="G426" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H426" s="39"/>
+      <c r="I426" s="9"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="20"/>
+    </row>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A427" s="40"/>
+      <c r="B427" s="20"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="39"/>
+      <c r="E427" s="9"/>
+      <c r="F427" s="20"/>
+      <c r="G427" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H427" s="39"/>
+      <c r="I427" s="9"/>
+      <c r="J427" s="11"/>
+      <c r="K427" s="20"/>
+    </row>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A428" s="40"/>
+      <c r="B428" s="20"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="39"/>
+      <c r="E428" s="9"/>
+      <c r="F428" s="20"/>
+      <c r="G428" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H428" s="39"/>
+      <c r="I428" s="9"/>
+      <c r="J428" s="11"/>
+      <c r="K428" s="20"/>
+    </row>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A429" s="40"/>
+      <c r="B429" s="20"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="39"/>
+      <c r="E429" s="9"/>
+      <c r="F429" s="20"/>
+      <c r="G429" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H429" s="39"/>
+      <c r="I429" s="9"/>
+      <c r="J429" s="11"/>
+      <c r="K429" s="20"/>
+    </row>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A430" s="40"/>
+      <c r="B430" s="20"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="39"/>
+      <c r="E430" s="9"/>
+      <c r="F430" s="20"/>
+      <c r="G430" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H430" s="39"/>
+      <c r="I430" s="9"/>
+      <c r="J430" s="11"/>
+      <c r="K430" s="20"/>
+    </row>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A431" s="40"/>
+      <c r="B431" s="20"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="39"/>
+      <c r="E431" s="9"/>
+      <c r="F431" s="20"/>
+      <c r="G431" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H431" s="39"/>
+      <c r="I431" s="9"/>
+      <c r="J431" s="11"/>
+      <c r="K431" s="20"/>
+    </row>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A432" s="40"/>
+      <c r="B432" s="20"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="39"/>
+      <c r="E432" s="9"/>
+      <c r="F432" s="20"/>
+      <c r="G432" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H432" s="39"/>
+      <c r="I432" s="9"/>
+      <c r="J432" s="11"/>
+      <c r="K432" s="20"/>
+    </row>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A433" s="40"/>
+      <c r="B433" s="20"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="39"/>
+      <c r="E433" s="9"/>
+      <c r="F433" s="20"/>
+      <c r="G433" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H433" s="39"/>
+      <c r="I433" s="9"/>
+      <c r="J433" s="11"/>
+      <c r="K433" s="20"/>
+    </row>
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A434" s="40"/>
+      <c r="B434" s="20"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="39"/>
+      <c r="E434" s="9"/>
+      <c r="F434" s="20"/>
+      <c r="G434" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H434" s="39"/>
+      <c r="I434" s="9"/>
+      <c r="J434" s="11"/>
+      <c r="K434" s="20"/>
+    </row>
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A435" s="40"/>
+      <c r="B435" s="20"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="39"/>
+      <c r="E435" s="9"/>
+      <c r="F435" s="20"/>
+      <c r="G435" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H435" s="39"/>
+      <c r="I435" s="9"/>
+      <c r="J435" s="11"/>
+      <c r="K435" s="20"/>
+    </row>
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A436" s="40"/>
+      <c r="B436" s="20"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="39"/>
+      <c r="E436" s="9"/>
+      <c r="F436" s="20"/>
+      <c r="G436" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H436" s="39"/>
+      <c r="I436" s="9"/>
+      <c r="J436" s="11"/>
+      <c r="K436" s="20"/>
+    </row>
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A437" s="52"/>
+      <c r="B437" s="15"/>
+      <c r="C437" s="41"/>
+      <c r="D437" s="42"/>
+      <c r="E437" s="53"/>
+      <c r="F437" s="15"/>
+      <c r="G437" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H437" s="42"/>
+      <c r="I437" s="53"/>
+      <c r="J437" s="12"/>
+      <c r="K437" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12430,7 +12937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12438,21 +12945,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="66" t="s">
         <v>33</v>
       </c>
@@ -12465,7 +12972,7 @@
       <c r="K1" s="67"/>
       <c r="L1" s="67"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12494,7 +13001,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1.167</v>
       </c>
@@ -12524,17 +13031,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -12555,7 +13062,7 @@
       <c r="K6" s="67"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -12582,7 +13089,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -12608,7 +13115,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -12634,7 +13141,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -12660,7 +13167,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -12686,7 +13193,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -12712,7 +13219,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -12738,7 +13245,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -12764,7 +13271,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -12784,7 +13291,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -12804,7 +13311,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -12824,7 +13331,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -12845,7 +13352,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -12866,7 +13373,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -12887,7 +13394,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -12908,7 +13415,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -12929,7 +13436,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -12950,7 +13457,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -12971,7 +13478,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -12992,7 +13499,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13013,7 +13520,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13034,7 +13541,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13055,7 +13562,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13076,7 +13583,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13097,7 +13604,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13118,7 +13625,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13139,7 +13646,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13160,7 +13667,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13181,7 +13688,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13202,7 +13709,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13223,7 +13730,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13244,7 +13751,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13253,7 +13760,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13262,7 +13769,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13271,7 +13778,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13280,7 +13787,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13289,7 +13796,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13298,7 +13805,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13307,7 +13814,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13316,7 +13823,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13325,7 +13832,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13334,7 +13841,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13343,7 +13850,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13352,7 +13859,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13361,7 +13868,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13370,7 +13877,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13379,7 +13886,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13388,7 +13895,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13397,7 +13904,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13406,7 +13913,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13415,7 +13922,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13424,7 +13931,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13433,7 +13940,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13442,7 +13949,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13451,7 +13958,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13460,7 +13967,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13469,7 +13976,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13478,7 +13985,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13487,7 +13994,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13496,7 +14003,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -13505,7 +14012,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -1063,6 +1063,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1098,9 +1101,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1550,7 +1550,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1593,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1657,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1717,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1783,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1846,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1944,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +2003,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2068,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2111,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2186,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2372,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2438,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2496,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2562,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2618,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2693,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2736,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2802,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2858,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2956,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3019,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3466,9 +3466,9 @@
   <dimension ref="A2:K437"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A396" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A397" activePane="bottomLeft"/>
       <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="C418" sqref="C418:C419"/>
+      <selection pane="bottomLeft" activeCell="C257" sqref="C257:C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,58 +3490,58 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="57"/>
+      <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="62"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="63"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="60"/>
-      <c r="K3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="62"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="62"/>
-      <c r="K4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="64"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3567,18 +3567,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="56"/>
-      <c r="E7" s="56"/>
-      <c r="F7" s="56"/>
-      <c r="G7" s="56" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
-      <c r="J7" s="56"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3625,7 +3625,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>213.23100000000002</v>
+        <v>213.23100000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3635,7 +3635,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>214.417</v>
+        <v>214.41700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3664,16 +3664,18 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
-        <v>35217</v>
+        <v>35219</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.167</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.167</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -3682,7 +3684,6 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
-        <f>EDATE(A11,1)</f>
         <v>35247</v>
       </c>
       <c r="B12" s="20"/>
@@ -3703,7 +3704,6 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
-        <f t="shared" ref="A13:A17" si="0">EDATE(A12,1)</f>
         <v>35278</v>
       </c>
       <c r="B13" s="20"/>
@@ -3724,7 +3724,6 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
-        <f t="shared" si="0"/>
         <v>35309</v>
       </c>
       <c r="B14" s="20"/>
@@ -3745,7 +3744,6 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
-        <f t="shared" si="0"/>
         <v>35339</v>
       </c>
       <c r="B15" s="20"/>
@@ -3766,7 +3764,6 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
-        <f t="shared" si="0"/>
         <v>35370</v>
       </c>
       <c r="B16" s="15"/>
@@ -3787,7 +3784,6 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
-        <f t="shared" si="0"/>
         <v>35400</v>
       </c>
       <c r="B17" s="20"/>
@@ -3873,7 +3869,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
-        <f t="shared" ref="A21:A31" si="1">EDATE(A20,1)</f>
+        <f t="shared" ref="A21:A31" si="0">EDATE(A20,1)</f>
         <v>35490</v>
       </c>
       <c r="B21" s="20" t="s">
@@ -3941,7 +3937,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35551</v>
       </c>
       <c r="B24" s="20"/>
@@ -3962,7 +3958,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35582</v>
       </c>
       <c r="B25" s="20"/>
@@ -3983,7 +3979,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35612</v>
       </c>
       <c r="B26" s="20"/>
@@ -4004,7 +4000,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35643</v>
       </c>
       <c r="B27" s="20" t="s">
@@ -4031,7 +4027,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35674</v>
       </c>
       <c r="B28" s="20" t="s">
@@ -4058,7 +4054,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35704</v>
       </c>
       <c r="B29" s="20"/>
@@ -4106,7 +4102,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35765</v>
       </c>
       <c r="B31" s="20" t="s">
@@ -4216,7 +4212,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <f t="shared" ref="A36:A45" si="2">EDATE(A35,1)</f>
+        <f t="shared" ref="A36:A45" si="1">EDATE(A35,1)</f>
         <v>35855</v>
       </c>
       <c r="B36" s="20" t="s">
@@ -4243,7 +4239,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35886</v>
       </c>
       <c r="B37" s="20"/>
@@ -4264,7 +4260,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35916</v>
       </c>
       <c r="B38" s="20"/>
@@ -4285,7 +4281,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35947</v>
       </c>
       <c r="B39" s="20"/>
@@ -4306,7 +4302,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>35977</v>
       </c>
       <c r="B40" s="20" t="s">
@@ -4333,7 +4329,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36008</v>
       </c>
       <c r="B41" s="20"/>
@@ -4354,7 +4350,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36039</v>
       </c>
       <c r="B42" s="20"/>
@@ -4375,7 +4371,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36069</v>
       </c>
       <c r="B43" s="20"/>
@@ -4396,7 +4392,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36100</v>
       </c>
       <c r="B44" s="20"/>
@@ -4417,7 +4413,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36130</v>
       </c>
       <c r="B45" s="20" t="s">
@@ -4525,7 +4521,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <f t="shared" ref="A50:A59" si="3">EDATE(A49,1)</f>
+        <f t="shared" ref="A50:A59" si="2">EDATE(A49,1)</f>
         <v>36220</v>
       </c>
       <c r="B50" s="20"/>
@@ -4546,7 +4542,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36251</v>
       </c>
       <c r="B51" s="20"/>
@@ -4567,7 +4563,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36281</v>
       </c>
       <c r="B52" s="20"/>
@@ -4588,7 +4584,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36312</v>
       </c>
       <c r="B53" s="20"/>
@@ -4609,7 +4605,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36342</v>
       </c>
       <c r="B54" s="20"/>
@@ -4630,7 +4626,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36373</v>
       </c>
       <c r="B55" s="20" t="s">
@@ -4657,7 +4653,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36404</v>
       </c>
       <c r="B56" s="20"/>
@@ -4678,7 +4674,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36434</v>
       </c>
       <c r="B57" s="20"/>
@@ -4699,7 +4695,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36465</v>
       </c>
       <c r="B58" s="20" t="s">
@@ -4726,7 +4722,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36495</v>
       </c>
       <c r="B59" s="20"/>
@@ -4808,7 +4804,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
-        <f t="shared" ref="A63:A72" si="4">EDATE(A62,1)</f>
+        <f t="shared" ref="A63:A72" si="3">EDATE(A62,1)</f>
         <v>36586</v>
       </c>
       <c r="B63" s="20"/>
@@ -4829,7 +4825,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36617</v>
       </c>
       <c r="B64" s="20" t="s">
@@ -4856,7 +4852,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36647</v>
       </c>
       <c r="B65" s="20"/>
@@ -4877,7 +4873,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36678</v>
       </c>
       <c r="B66" s="20"/>
@@ -4898,7 +4894,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36708</v>
       </c>
       <c r="B67" s="20"/>
@@ -4919,7 +4915,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36739</v>
       </c>
       <c r="B68" s="20" t="s">
@@ -4946,7 +4942,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36770</v>
       </c>
       <c r="B69" s="20"/>
@@ -4967,7 +4963,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36800</v>
       </c>
       <c r="B70" s="20"/>
@@ -5009,7 +5005,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36861</v>
       </c>
       <c r="B72" s="20" t="s">
@@ -5119,7 +5115,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
-        <f t="shared" ref="A77:A86" si="5">EDATE(A76,1)</f>
+        <f t="shared" ref="A77:A86" si="4">EDATE(A76,1)</f>
         <v>36951</v>
       </c>
       <c r="B77" s="20"/>
@@ -5140,7 +5136,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>36982</v>
       </c>
       <c r="B78" s="20"/>
@@ -5161,7 +5157,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37012</v>
       </c>
       <c r="B79" s="20"/>
@@ -5182,7 +5178,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37043</v>
       </c>
       <c r="B80" s="20"/>
@@ -5203,7 +5199,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37073</v>
       </c>
       <c r="B81" s="20"/>
@@ -5224,7 +5220,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37104</v>
       </c>
       <c r="B82" s="20"/>
@@ -5245,7 +5241,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37135</v>
       </c>
       <c r="B83" s="20" t="s">
@@ -5270,7 +5266,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37165</v>
       </c>
       <c r="B84" s="20"/>
@@ -5312,7 +5308,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>37226</v>
       </c>
       <c r="B86" s="20" t="s">
@@ -5396,7 +5392,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <f t="shared" ref="A90:A99" si="6">EDATE(A89,1)</f>
+        <f t="shared" ref="A90:A99" si="5">EDATE(A89,1)</f>
         <v>37316</v>
       </c>
       <c r="B90" s="20"/>
@@ -5417,7 +5413,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37347</v>
       </c>
       <c r="B91" s="20"/>
@@ -5438,7 +5434,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37377</v>
       </c>
       <c r="B92" s="20"/>
@@ -5459,7 +5455,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37408</v>
       </c>
       <c r="B93" s="20"/>
@@ -5480,7 +5476,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37438</v>
       </c>
       <c r="B94" s="20"/>
@@ -5501,7 +5497,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37469</v>
       </c>
       <c r="B95" s="20"/>
@@ -5522,7 +5518,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37500</v>
       </c>
       <c r="B96" s="20"/>
@@ -5543,7 +5539,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37530</v>
       </c>
       <c r="B97" s="20" t="s">
@@ -5570,7 +5566,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37561</v>
       </c>
       <c r="B98" s="20"/>
@@ -5591,7 +5587,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>37591</v>
       </c>
       <c r="B99" s="20" t="s">
@@ -5675,7 +5671,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <f t="shared" ref="A103:A111" si="7">EDATE(A102,1)</f>
+        <f t="shared" ref="A103:A111" si="6">EDATE(A102,1)</f>
         <v>37681</v>
       </c>
       <c r="B103" s="20" t="s">
@@ -5700,7 +5696,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37712</v>
       </c>
       <c r="B104" s="20" t="s">
@@ -5725,7 +5721,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37742</v>
       </c>
       <c r="B105" s="20"/>
@@ -5746,7 +5742,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37773</v>
       </c>
       <c r="B106" s="20"/>
@@ -5767,7 +5763,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37803</v>
       </c>
       <c r="B107" s="20"/>
@@ -5788,7 +5784,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37834</v>
       </c>
       <c r="B108" s="20"/>
@@ -5809,7 +5805,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37865</v>
       </c>
       <c r="B109" s="20"/>
@@ -5830,7 +5826,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37895</v>
       </c>
       <c r="B110" s="20"/>
@@ -5851,7 +5847,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>37926</v>
       </c>
       <c r="B111" s="20"/>
@@ -5978,7 +5974,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <f t="shared" ref="A117:A127" si="8">EDATE(A116,1)</f>
+        <f t="shared" ref="A117:A127" si="7">EDATE(A116,1)</f>
         <v>38047</v>
       </c>
       <c r="B117" s="20"/>
@@ -5999,7 +5995,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38078</v>
       </c>
       <c r="B118" s="20"/>
@@ -6020,7 +6016,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38108</v>
       </c>
       <c r="B119" s="20"/>
@@ -6041,7 +6037,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38139</v>
       </c>
       <c r="B120" s="20" t="s">
@@ -6113,7 +6109,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38200</v>
       </c>
       <c r="B123" s="20" t="s">
@@ -6138,7 +6134,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38231</v>
       </c>
       <c r="B124" s="20"/>
@@ -6159,7 +6155,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38261</v>
       </c>
       <c r="B125" s="20" t="s">
@@ -6184,7 +6180,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38292</v>
       </c>
       <c r="B126" s="20"/>
@@ -6205,7 +6201,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>38322</v>
       </c>
       <c r="B127" s="20"/>
@@ -6291,7 +6287,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <f t="shared" ref="A131:A139" si="9">EDATE(A130,1)</f>
+        <f t="shared" ref="A131:A139" si="8">EDATE(A130,1)</f>
         <v>38412</v>
       </c>
       <c r="B131" s="20"/>
@@ -6312,7 +6308,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38443</v>
       </c>
       <c r="B132" s="15"/>
@@ -6333,7 +6329,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38473</v>
       </c>
       <c r="B133" s="20"/>
@@ -6354,7 +6350,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38504</v>
       </c>
       <c r="B134" s="20"/>
@@ -6375,7 +6371,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38534</v>
       </c>
       <c r="B135" s="20"/>
@@ -6396,7 +6392,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38565</v>
       </c>
       <c r="B136" s="20"/>
@@ -6417,7 +6413,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38596</v>
       </c>
       <c r="B137" s="20" t="s">
@@ -6442,7 +6438,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38626</v>
       </c>
       <c r="B138" s="20" t="s">
@@ -6469,7 +6465,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>38657</v>
       </c>
       <c r="B139" s="20"/>
@@ -6570,7 +6566,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <f t="shared" ref="A144:A153" si="10">EDATE(A143,1)</f>
+        <f t="shared" ref="A144:A153" si="9">EDATE(A143,1)</f>
         <v>38777</v>
       </c>
       <c r="B144" s="20"/>
@@ -6591,7 +6587,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38808</v>
       </c>
       <c r="B145" s="20"/>
@@ -6612,7 +6608,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38838</v>
       </c>
       <c r="B146" s="20"/>
@@ -6633,7 +6629,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38869</v>
       </c>
       <c r="B147" s="20"/>
@@ -6654,7 +6650,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38899</v>
       </c>
       <c r="B148" s="20"/>
@@ -6675,7 +6671,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38930</v>
       </c>
       <c r="B149" s="20" t="s">
@@ -6747,7 +6743,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>38991</v>
       </c>
       <c r="B152" s="20"/>
@@ -6768,7 +6764,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>39022</v>
       </c>
       <c r="B153" s="20" t="s">
@@ -6883,7 +6879,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <f t="shared" ref="A158:A172" si="11">EDATE(A157,1)</f>
+        <f t="shared" ref="A158:A172" si="10">EDATE(A157,1)</f>
         <v>39142</v>
       </c>
       <c r="B158" s="20" t="s">
@@ -6949,7 +6945,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39203</v>
       </c>
       <c r="B161" s="20"/>
@@ -6970,7 +6966,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39234</v>
       </c>
       <c r="B162" s="20" t="s">
@@ -7054,7 +7050,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39295</v>
       </c>
       <c r="B166" s="20" t="s">
@@ -7079,7 +7075,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39326</v>
       </c>
       <c r="B167" s="20"/>
@@ -7100,7 +7096,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39356</v>
       </c>
       <c r="B168" s="20" t="s">
@@ -7192,7 +7188,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>39417</v>
       </c>
       <c r="B172" s="20" t="s">
@@ -7278,7 +7274,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
-        <f t="shared" ref="A176:A185" si="12">EDATE(A175,1)</f>
+        <f t="shared" ref="A176:A185" si="11">EDATE(A175,1)</f>
         <v>39508</v>
       </c>
       <c r="B176" s="20" t="s">
@@ -7303,7 +7299,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39539</v>
       </c>
       <c r="B177" s="20" t="s">
@@ -7328,7 +7324,7 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39569</v>
       </c>
       <c r="B178" s="20"/>
@@ -7349,7 +7345,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39600</v>
       </c>
       <c r="B179" s="20"/>
@@ -7370,7 +7366,7 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39630</v>
       </c>
       <c r="B180" s="20"/>
@@ -7391,7 +7387,7 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39661</v>
       </c>
       <c r="B181" s="20"/>
@@ -7412,7 +7408,7 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39692</v>
       </c>
       <c r="B182" s="20" t="s">
@@ -7483,7 +7479,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>39753</v>
       </c>
       <c r="B185" s="20"/>
@@ -7588,7 +7584,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <f t="shared" ref="A190:A201" si="13">EDATE(A189,1)</f>
+        <f t="shared" ref="A190:A201" si="12">EDATE(A189,1)</f>
         <v>39873</v>
       </c>
       <c r="B190" s="20"/>
@@ -7609,7 +7605,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>39904</v>
       </c>
       <c r="B191" s="20" t="s">
@@ -7634,7 +7630,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>39934</v>
       </c>
       <c r="B192" s="20"/>
@@ -7655,7 +7651,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>39965</v>
       </c>
       <c r="B193" s="20"/>
@@ -7676,7 +7672,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>39995</v>
       </c>
       <c r="B194" s="20"/>
@@ -7697,7 +7693,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>40026</v>
       </c>
       <c r="B195" s="20"/>
@@ -7718,7 +7714,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>40057</v>
       </c>
       <c r="B196" s="20" t="s">
@@ -7825,7 +7821,7 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>40148</v>
       </c>
       <c r="B201" s="20"/>
@@ -7960,7 +7956,7 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
-        <f t="shared" ref="A207:A216" si="14">EDATE(A206,1)</f>
+        <f t="shared" ref="A207:A216" si="13">EDATE(A206,1)</f>
         <v>40269</v>
       </c>
       <c r="B207" s="20" t="s">
@@ -7983,7 +7979,7 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40299</v>
       </c>
       <c r="B208" s="20" t="s">
@@ -8057,7 +8053,7 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40360</v>
       </c>
       <c r="B211" s="15" t="s">
@@ -8084,7 +8080,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40391</v>
       </c>
       <c r="B212" s="20"/>
@@ -8105,7 +8101,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40422</v>
       </c>
       <c r="B213" s="20"/>
@@ -8126,7 +8122,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40452</v>
       </c>
       <c r="B214" s="20"/>
@@ -8147,7 +8143,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40483</v>
       </c>
       <c r="B215" s="20"/>
@@ -8168,7 +8164,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="13"/>
         <v>40513</v>
       </c>
       <c r="B216" s="20"/>
@@ -8248,7 +8244,7 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
-        <f t="shared" ref="A220:A227" si="15">EDATE(A219,1)</f>
+        <f t="shared" ref="A220:A227" si="14">EDATE(A219,1)</f>
         <v>40603</v>
       </c>
       <c r="B220" s="20"/>
@@ -8269,7 +8265,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40634</v>
       </c>
       <c r="B221" s="20" t="s">
@@ -8296,7 +8292,7 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40664</v>
       </c>
       <c r="B222" s="15"/>
@@ -8317,7 +8313,7 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40695</v>
       </c>
       <c r="B223" s="20"/>
@@ -8338,7 +8334,7 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40725</v>
       </c>
       <c r="B224" s="20" t="s">
@@ -8363,7 +8359,7 @@
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40756</v>
       </c>
       <c r="B225" s="20" t="s">
@@ -8388,7 +8384,7 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40787</v>
       </c>
       <c r="B226" s="20"/>
@@ -8409,7 +8405,7 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>40817</v>
       </c>
       <c r="B227" s="20" t="s">
@@ -8577,7 +8573,7 @@
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
-        <f t="shared" ref="A235:A246" si="16">EDATE(A234,1)</f>
+        <f t="shared" ref="A235:A246" si="15">EDATE(A234,1)</f>
         <v>40969</v>
       </c>
       <c r="B235" s="20" t="s">
@@ -8645,7 +8641,7 @@
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41030</v>
       </c>
       <c r="B238" s="20" t="s">
@@ -8708,7 +8704,7 @@
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41091</v>
       </c>
       <c r="B241" s="20"/>
@@ -8729,7 +8725,7 @@
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41122</v>
       </c>
       <c r="B242" s="20"/>
@@ -8750,7 +8746,7 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41153</v>
       </c>
       <c r="B243" s="20" t="s">
@@ -8777,7 +8773,7 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41183</v>
       </c>
       <c r="B244" s="20"/>
@@ -8798,7 +8794,7 @@
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41214</v>
       </c>
       <c r="B245" s="20"/>
@@ -8819,7 +8815,7 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>41244</v>
       </c>
       <c r="B246" s="20"/>
@@ -8903,7 +8899,7 @@
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
-        <f t="shared" ref="A250:A261" si="17">EDATE(A249,1)</f>
+        <f t="shared" ref="A250:A261" si="16">EDATE(A249,1)</f>
         <v>41334</v>
       </c>
       <c r="B250" s="20"/>
@@ -8924,7 +8920,7 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41365</v>
       </c>
       <c r="B251" s="20" t="s">
@@ -8949,7 +8945,7 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41395</v>
       </c>
       <c r="B252" s="20"/>
@@ -8970,7 +8966,7 @@
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41426</v>
       </c>
       <c r="B253" s="20"/>
@@ -8991,7 +8987,7 @@
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41456</v>
       </c>
       <c r="B254" s="20"/>
@@ -9012,7 +9008,7 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41487</v>
       </c>
       <c r="B255" s="20"/>
@@ -9033,7 +9029,7 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41518</v>
       </c>
       <c r="B256" s="20" t="s">
@@ -9117,7 +9113,7 @@
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41579</v>
       </c>
       <c r="B260" s="20" t="s">
@@ -9144,7 +9140,7 @@
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>41609</v>
       </c>
       <c r="B261" s="20"/>
@@ -9228,7 +9224,7 @@
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
-        <f t="shared" ref="A265:A275" si="18">EDATE(A264,1)</f>
+        <f t="shared" ref="A265:A275" si="17">EDATE(A264,1)</f>
         <v>41699</v>
       </c>
       <c r="B265" s="20" t="s">
@@ -9255,7 +9251,7 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41730</v>
       </c>
       <c r="B266" s="20" t="s">
@@ -9280,7 +9276,7 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41760</v>
       </c>
       <c r="B267" s="20"/>
@@ -9301,7 +9297,7 @@
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41791</v>
       </c>
       <c r="B268" s="20"/>
@@ -9322,7 +9318,7 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41821</v>
       </c>
       <c r="B269" s="20"/>
@@ -9343,7 +9339,7 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41852</v>
       </c>
       <c r="B270" s="20" t="s">
@@ -9408,7 +9404,7 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41913</v>
       </c>
       <c r="B273" s="20" t="s">
@@ -9431,7 +9427,7 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41944</v>
       </c>
       <c r="B274" s="20" t="s">
@@ -9458,7 +9454,7 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
-        <f t="shared" si="18"/>
+        <f t="shared" si="17"/>
         <v>41974</v>
       </c>
       <c r="B275" s="20"/>
@@ -9538,7 +9534,7 @@
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
-        <f t="shared" ref="A279:A290" si="19">EDATE(A278,1)</f>
+        <f t="shared" ref="A279:A290" si="18">EDATE(A278,1)</f>
         <v>42064</v>
       </c>
       <c r="B279" s="20" t="s">
@@ -9604,7 +9600,7 @@
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42125</v>
       </c>
       <c r="B282" s="20"/>
@@ -9625,7 +9621,7 @@
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42156</v>
       </c>
       <c r="B283" s="20" t="s">
@@ -9652,7 +9648,7 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42186</v>
       </c>
       <c r="B284" s="20"/>
@@ -9673,7 +9669,7 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42217</v>
       </c>
       <c r="B285" s="20" t="s">
@@ -9762,7 +9758,7 @@
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42309</v>
       </c>
       <c r="B289" s="20" t="s">
@@ -9789,7 +9785,7 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
-        <f t="shared" si="19"/>
+        <f t="shared" si="18"/>
         <v>42339</v>
       </c>
       <c r="B290" s="20"/>
@@ -9869,7 +9865,7 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
-        <f t="shared" ref="A294:A303" si="20">EDATE(A293,1)</f>
+        <f t="shared" ref="A294:A303" si="19">EDATE(A293,1)</f>
         <v>42430</v>
       </c>
       <c r="B294" s="20"/>
@@ -9890,7 +9886,7 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42461</v>
       </c>
       <c r="B295" s="20" t="s">
@@ -9915,7 +9911,7 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42491</v>
       </c>
       <c r="B296" s="20"/>
@@ -9936,7 +9932,7 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42522</v>
       </c>
       <c r="B297" s="20"/>
@@ -9957,7 +9953,7 @@
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42552</v>
       </c>
       <c r="B298" s="20"/>
@@ -9978,7 +9974,7 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42583</v>
       </c>
       <c r="B299" s="20"/>
@@ -9999,7 +9995,7 @@
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42614</v>
       </c>
       <c r="B300" s="20"/>
@@ -10020,7 +10016,7 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42644</v>
       </c>
       <c r="B301" s="20"/>
@@ -10041,7 +10037,7 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42675</v>
       </c>
       <c r="B302" s="20" t="s">
@@ -10068,7 +10064,7 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="19"/>
         <v>42705</v>
       </c>
       <c r="B303" s="20"/>
@@ -10154,7 +10150,7 @@
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
-        <f t="shared" ref="A307:A315" si="21">EDATE(A306,1)</f>
+        <f t="shared" ref="A307:A315" si="20">EDATE(A306,1)</f>
         <v>42795</v>
       </c>
       <c r="B307" s="20"/>
@@ -10175,7 +10171,7 @@
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42826</v>
       </c>
       <c r="B308" s="20" t="s">
@@ -10249,7 +10245,7 @@
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42887</v>
       </c>
       <c r="B311" s="20"/>
@@ -10270,7 +10266,7 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42917</v>
       </c>
       <c r="B312" s="20"/>
@@ -10291,7 +10287,7 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42948</v>
       </c>
       <c r="B313" s="20" t="s">
@@ -10316,7 +10312,7 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>42979</v>
       </c>
       <c r="B314" s="20"/>
@@ -10337,7 +10333,7 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
-        <f t="shared" si="21"/>
+        <f t="shared" si="20"/>
         <v>43009</v>
       </c>
       <c r="B315" s="20"/>
@@ -10494,7 +10490,7 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
-        <f t="shared" ref="A322:A335" si="22">EDATE(A321,1)</f>
+        <f t="shared" ref="A322:A335" si="21">EDATE(A321,1)</f>
         <v>43160</v>
       </c>
       <c r="B322" s="20"/>
@@ -10515,7 +10511,7 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43191</v>
       </c>
       <c r="B323" s="20" t="s">
@@ -10618,7 +10614,7 @@
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43252</v>
       </c>
       <c r="B328" s="20"/>
@@ -10639,7 +10635,7 @@
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43282</v>
       </c>
       <c r="B329" s="20" t="s">
@@ -10709,7 +10705,7 @@
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43344</v>
       </c>
       <c r="B332" s="20"/>
@@ -10751,7 +10747,7 @@
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43405</v>
       </c>
       <c r="B334" s="20"/>
@@ -10772,7 +10768,7 @@
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>43435</v>
       </c>
       <c r="B335" s="20" t="s">
@@ -10964,7 +10960,7 @@
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
-        <f t="shared" ref="A344:A364" si="23">EDATE(A343,1)</f>
+        <f t="shared" ref="A344:A364" si="22">EDATE(A343,1)</f>
         <v>43525</v>
       </c>
       <c r="B344" s="20" t="s">
@@ -11052,7 +11048,7 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43586</v>
       </c>
       <c r="B348" s="20" t="s">
@@ -11255,7 +11251,7 @@
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43709</v>
       </c>
       <c r="B357" s="20" t="s">
@@ -11379,7 +11375,7 @@
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43770</v>
       </c>
       <c r="B363" s="20"/>
@@ -11400,7 +11396,7 @@
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="22"/>
         <v>43800</v>
       </c>
       <c r="B364" s="20"/>
@@ -11484,7 +11480,7 @@
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
-        <f t="shared" ref="A368:A381" si="24">EDATE(A367,1)</f>
+        <f t="shared" ref="A368:A381" si="23">EDATE(A367,1)</f>
         <v>43891</v>
       </c>
       <c r="B368" s="20"/>
@@ -11505,7 +11501,7 @@
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>43922</v>
       </c>
       <c r="B369" s="20" t="s">
@@ -11530,7 +11526,7 @@
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>43952</v>
       </c>
       <c r="B370" s="20"/>
@@ -11551,7 +11547,7 @@
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>43983</v>
       </c>
       <c r="B371" s="20" t="s">
@@ -11619,7 +11615,7 @@
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44044</v>
       </c>
       <c r="B374" s="20"/>
@@ -11748,7 +11744,7 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44136</v>
       </c>
       <c r="B380" s="20"/>
@@ -11769,7 +11765,7 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>44166</v>
       </c>
       <c r="B381" s="20"/>
@@ -11853,7 +11849,7 @@
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
-        <f t="shared" ref="A385:A393" si="25">EDATE(A384,1)</f>
+        <f t="shared" ref="A385:A393" si="24">EDATE(A384,1)</f>
         <v>44256</v>
       </c>
       <c r="B385" s="20"/>
@@ -11874,7 +11870,7 @@
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44287</v>
       </c>
       <c r="B386" s="20"/>
@@ -11895,7 +11891,7 @@
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44317</v>
       </c>
       <c r="B387" s="15"/>
@@ -11916,7 +11912,7 @@
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44348</v>
       </c>
       <c r="B388" s="20" t="s">
@@ -11941,7 +11937,7 @@
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44378</v>
       </c>
       <c r="B389" s="20"/>
@@ -11962,7 +11958,7 @@
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44409</v>
       </c>
       <c r="B390" s="20"/>
@@ -11983,7 +11979,7 @@
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44440</v>
       </c>
       <c r="B391" s="20" t="s">
@@ -12031,7 +12027,7 @@
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
-        <f t="shared" si="25"/>
+        <f t="shared" si="24"/>
         <v>44501</v>
       </c>
       <c r="B393" s="20" t="s">
@@ -12164,7 +12160,7 @@
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
-        <f t="shared" ref="A399:A403" si="26">EDATE(A398,1)</f>
+        <f t="shared" ref="A399:A403" si="25">EDATE(A398,1)</f>
         <v>44621</v>
       </c>
       <c r="B399" s="20"/>
@@ -12185,7 +12181,7 @@
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44652</v>
       </c>
       <c r="B400" s="20" t="s">
@@ -12210,7 +12206,7 @@
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44682</v>
       </c>
       <c r="B401" s="20"/>
@@ -12231,7 +12227,7 @@
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44713</v>
       </c>
       <c r="B402" s="20"/>
@@ -12252,7 +12248,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <f t="shared" si="26"/>
+        <f t="shared" si="25"/>
         <v>44743</v>
       </c>
       <c r="B403" s="20" t="s">
@@ -12452,7 +12448,7 @@
       </c>
       <c r="I412" s="53"/>
       <c r="J412" s="12"/>
-      <c r="K412" s="68">
+      <c r="K412" s="56">
         <v>44862</v>
       </c>
     </row>
@@ -12474,7 +12470,7 @@
       <c r="H413" s="42"/>
       <c r="I413" s="53"/>
       <c r="J413" s="12"/>
-      <c r="K413" s="68" t="s">
+      <c r="K413" s="56" t="s">
         <v>202</v>
       </c>
     </row>
@@ -12942,7 +12938,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12960,17 +12956,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="J1" s="67" t="s">
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="J1" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -13002,12 +12998,8 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>1.167</v>
-      </c>
-      <c r="B3" s="11">
-        <v>1.167</v>
-      </c>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
       <c r="D3">
         <v>0</v>
       </c>
@@ -13055,12 +13047,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75F5585-7711-4B82-8F56-194320102004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19410" windowHeight="11010" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="205">
   <si>
     <t>PERIOD</t>
   </si>
@@ -662,7 +655,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1550,7 +1543,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1593,7 +1586,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1657,7 +1650,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1710,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1783,7 +1776,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1846,7 +1839,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1937,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2003,7 +1996,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2068,7 +2061,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2111,7 +2104,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2186,7 +2179,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2372,7 +2365,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2438,7 +2431,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,7 +2489,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,7 +2555,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2618,7 +2611,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2693,7 +2686,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2736,7 +2729,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2802,7 +2795,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2858,7 +2851,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2956,7 +2949,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3019,7 +3012,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3085,25 +3078,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K437" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K437" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3115,13 +3108,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3130,14 +3123,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3441,7 +3434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3451,7 +3444,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3459,34 +3452,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K437"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A397" activePane="bottomLeft"/>
+      <pane ySplit="1896" topLeftCell="A419" activePane="bottomLeft"/>
       <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="C257" sqref="C257:C258"/>
+      <selection pane="bottomLeft" activeCell="H420" sqref="H420"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3507,7 +3500,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3525,7 +3518,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3543,7 +3536,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3551,7 +3544,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3564,7 +3557,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3581,7 +3574,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3635,12 +3628,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>214.41700000000003</v>
+        <v>213.41700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3662,7 +3655,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>35219</v>
       </c>
@@ -3682,7 +3675,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>35247</v>
       </c>
@@ -3702,7 +3695,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>35278</v>
       </c>
@@ -3722,7 +3715,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>35309</v>
       </c>
@@ -3742,7 +3735,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>35339</v>
       </c>
@@ -3762,7 +3755,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>35370</v>
       </c>
@@ -3782,7 +3775,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>35400</v>
       </c>
@@ -3802,7 +3795,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="47" t="s">
         <v>44</v>
       </c>
@@ -3820,7 +3813,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>35431</v>
       </c>
@@ -3840,7 +3833,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35462</v>
@@ -3867,7 +3860,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A31" si="0">EDATE(A20,1)</f>
         <v>35490</v>
@@ -3894,7 +3887,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -3914,7 +3907,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <f>EDATE(A21,1)</f>
         <v>35521</v>
@@ -3935,7 +3928,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -3956,7 +3949,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -3977,7 +3970,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -3998,7 +3991,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -4025,7 +4018,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4052,7 +4045,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4073,7 +4066,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4100,7 +4093,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4125,7 +4118,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -4145,7 +4138,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="47" t="s">
         <v>54</v>
       </c>
@@ -4163,7 +4156,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>35796</v>
       </c>
@@ -4183,7 +4176,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <f>EDATE(A34,1)</f>
         <v>35827</v>
@@ -4210,7 +4203,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <f t="shared" ref="A36:A45" si="1">EDATE(A35,1)</f>
         <v>35855</v>
@@ -4237,7 +4230,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4258,7 +4251,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4279,7 +4272,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4300,7 +4293,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4327,7 +4320,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4348,7 +4341,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4369,7 +4362,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -4390,7 +4383,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -4411,7 +4404,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -4438,7 +4431,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>60</v>
@@ -4460,7 +4453,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="47" t="s">
         <v>62</v>
       </c>
@@ -4478,7 +4471,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>36161</v>
       </c>
@@ -4498,7 +4491,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <f>EDATE(A48,1)</f>
         <v>36192</v>
@@ -4519,7 +4512,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <f t="shared" ref="A50:A59" si="2">EDATE(A49,1)</f>
         <v>36220</v>
@@ -4540,7 +4533,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -4561,7 +4554,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -4582,7 +4575,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>36312</v>
@@ -4603,7 +4596,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -4624,7 +4617,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -4651,7 +4644,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -4672,7 +4665,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -4693,7 +4686,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -4720,7 +4713,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -4741,7 +4734,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="47" t="s">
         <v>65</v>
       </c>
@@ -4761,7 +4754,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>36526</v>
       </c>
@@ -4781,7 +4774,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <f>EDATE(A61,1)</f>
         <v>36557</v>
@@ -4802,7 +4795,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <f t="shared" ref="A63:A72" si="3">EDATE(A62,1)</f>
         <v>36586</v>
@@ -4823,7 +4816,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -4850,7 +4843,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>36647</v>
@@ -4871,7 +4864,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -4892,7 +4885,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -4913,7 +4906,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -4940,7 +4933,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -4961,7 +4954,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -4982,7 +4975,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>36831</v>
@@ -5003,7 +4996,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -5028,7 +5021,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5044,7 +5037,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="47" t="s">
         <v>70</v>
       </c>
@@ -5062,7 +5055,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>36892</v>
       </c>
@@ -5086,7 +5079,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>36923</v>
@@ -5113,7 +5106,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A86" si="4">EDATE(A76,1)</f>
         <v>36951</v>
@@ -5134,7 +5127,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36982</v>
@@ -5155,7 +5148,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -5176,7 +5169,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -5197,7 +5190,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -5218,7 +5211,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -5239,7 +5232,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -5264,7 +5257,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -5285,7 +5278,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>37196</v>
@@ -5306,7 +5299,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>37226</v>
@@ -5331,7 +5324,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="47" t="s">
         <v>75</v>
       </c>
@@ -5349,7 +5342,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>37257</v>
       </c>
@@ -5369,7 +5362,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>37288</v>
@@ -5390,7 +5383,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A99" si="5">EDATE(A89,1)</f>
         <v>37316</v>
@@ -5411,7 +5404,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>37347</v>
@@ -5432,7 +5425,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -5453,7 +5446,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -5474,7 +5467,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -5495,7 +5488,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -5516,7 +5509,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -5537,7 +5530,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>37530</v>
@@ -5564,7 +5557,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -5585,7 +5578,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -5610,7 +5603,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="47" t="s">
         <v>78</v>
       </c>
@@ -5628,7 +5621,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>37622</v>
       </c>
@@ -5648,7 +5641,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <f>EDATE(A101,1)</f>
         <v>37653</v>
@@ -5669,7 +5662,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <f t="shared" ref="A103:A111" si="6">EDATE(A102,1)</f>
         <v>37681</v>
@@ -5694,7 +5687,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -5719,7 +5712,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -5740,7 +5733,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -5761,7 +5754,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37803</v>
@@ -5782,7 +5775,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -5803,7 +5796,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -5824,7 +5817,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -5845,7 +5838,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -5866,7 +5859,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <f>EDATE(A111,1)</f>
         <v>37956</v>
@@ -5893,7 +5886,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>83</v>
@@ -5913,7 +5906,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="47" t="s">
         <v>84</v>
       </c>
@@ -5931,7 +5924,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -5951,7 +5944,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <f>EDATE(A115,1)</f>
         <v>38018</v>
@@ -5972,7 +5965,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <f t="shared" ref="A117:A127" si="7">EDATE(A116,1)</f>
         <v>38047</v>
@@ -5993,7 +5986,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -6014,7 +6007,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -6035,7 +6028,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -6062,7 +6055,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>87</v>
@@ -6082,7 +6075,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>38169</v>
@@ -6107,7 +6100,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -6132,7 +6125,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -6153,7 +6146,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -6178,7 +6171,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -6199,7 +6192,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -6220,7 +6213,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="47" t="s">
         <v>85</v>
       </c>
@@ -6238,7 +6231,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>38353</v>
       </c>
@@ -6264,7 +6257,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <f>EDATE(A129,1)</f>
         <v>38384</v>
@@ -6285,7 +6278,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <f t="shared" ref="A131:A139" si="8">EDATE(A130,1)</f>
         <v>38412</v>
@@ -6306,7 +6299,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -6327,7 +6320,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -6348,7 +6341,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -6369,7 +6362,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -6390,7 +6383,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -6411,7 +6404,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -6436,7 +6429,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -6463,7 +6456,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -6484,7 +6477,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <f>EDATE(A139,1)</f>
         <v>38687</v>
@@ -6505,7 +6498,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="47" t="s">
         <v>93</v>
       </c>
@@ -6523,7 +6516,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>38718</v>
       </c>
@@ -6543,7 +6536,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <f>EDATE(A142,1)</f>
         <v>38749</v>
@@ -6564,7 +6557,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <f t="shared" ref="A144:A153" si="9">EDATE(A143,1)</f>
         <v>38777</v>
@@ -6585,7 +6578,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="15"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>38808</v>
@@ -6606,7 +6599,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="15"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>38838</v>
@@ -6627,7 +6620,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -6648,7 +6641,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -6669,7 +6662,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -6696,7 +6689,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
@@ -6716,7 +6709,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>38961</v>
@@ -6741,7 +6734,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -6762,7 +6755,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -6789,7 +6782,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>39052</v>
@@ -6810,7 +6803,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="47" t="s">
         <v>98</v>
       </c>
@@ -6828,7 +6821,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>39083</v>
       </c>
@@ -6852,7 +6845,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <f>EDATE(A156,1)</f>
         <v>39114</v>
@@ -6877,7 +6870,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="15"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <f t="shared" ref="A158:A172" si="10">EDATE(A157,1)</f>
         <v>39142</v>
@@ -6902,7 +6895,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>48</v>
@@ -6922,7 +6915,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>39173</v>
@@ -6943,7 +6936,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -6964,7 +6957,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -6991,7 +6984,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>103</v>
@@ -7010,7 +7003,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>100</v>
@@ -7027,7 +7020,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>39264</v>
@@ -7048,7 +7041,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>39295</v>
@@ -7073,7 +7066,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <f t="shared" si="10"/>
         <v>39326</v>
@@ -7094,7 +7087,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <f t="shared" si="10"/>
         <v>39356</v>
@@ -7121,7 +7114,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>57</v>
@@ -7140,7 +7133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>69</v>
@@ -7159,7 +7152,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <f>EDATE(A168,1)</f>
         <v>39387</v>
@@ -7186,7 +7179,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>39417</v>
@@ -7213,7 +7206,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="47" t="s">
         <v>113</v>
       </c>
@@ -7231,7 +7224,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>39448</v>
       </c>
@@ -7251,7 +7244,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
         <f>EDATE(A174,1)</f>
         <v>39479</v>
@@ -7272,7 +7265,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <f t="shared" ref="A176:A185" si="11">EDATE(A175,1)</f>
         <v>39508</v>
@@ -7297,7 +7290,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>39539</v>
@@ -7322,7 +7315,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -7343,7 +7336,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -7364,7 +7357,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -7385,7 +7378,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <f t="shared" si="11"/>
         <v>39661</v>
@@ -7406,7 +7399,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -7431,7 +7424,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>57</v>
@@ -7450,7 +7443,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <f>EDATE(A182,1)</f>
         <v>39722</v>
@@ -7477,7 +7470,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -7498,7 +7491,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <f>EDATE(A185,1)</f>
         <v>39783</v>
@@ -7523,7 +7516,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="47" t="s">
         <v>118</v>
       </c>
@@ -7541,7 +7534,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>39814</v>
       </c>
@@ -7561,7 +7554,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <f>EDATE(A188,1)</f>
         <v>39845</v>
@@ -7582,7 +7575,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <f t="shared" ref="A190:A201" si="12">EDATE(A189,1)</f>
         <v>39873</v>
@@ -7603,7 +7596,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <f t="shared" si="12"/>
         <v>39904</v>
@@ -7628,7 +7621,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -7649,7 +7642,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <f t="shared" si="12"/>
         <v>39965</v>
@@ -7670,7 +7663,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -7691,7 +7684,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -7712,7 +7705,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -7739,7 +7732,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>74</v>
@@ -7758,7 +7751,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>119</v>
@@ -7777,7 +7770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <f>EDATE(A196,1)</f>
         <v>40087</v>
@@ -7798,7 +7791,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>40118</v>
@@ -7819,7 +7812,7 @@
       <c r="J200" s="12"/>
       <c r="K200" s="15"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -7840,7 +7833,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="47" t="s">
         <v>122</v>
       </c>
@@ -7858,7 +7851,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>40179</v>
       </c>
@@ -7882,7 +7875,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>40210</v>
@@ -7909,7 +7902,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>116</v>
@@ -7929,7 +7922,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <f>EDATE(A204,1)</f>
         <v>40238</v>
@@ -7954,7 +7947,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A216" si="13">EDATE(A206,1)</f>
         <v>40269</v>
@@ -7977,7 +7970,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -8004,7 +7997,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>127</v>
@@ -8024,7 +8017,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <f>EDATE(A208,1)</f>
         <v>40330</v>
@@ -8051,7 +8044,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <f t="shared" si="13"/>
         <v>40360</v>
@@ -8078,7 +8071,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -8099,7 +8092,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -8120,7 +8113,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -8141,7 +8134,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -8162,7 +8155,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -8183,7 +8176,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="47" t="s">
         <v>130</v>
       </c>
@@ -8201,7 +8194,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="52">
         <v>40544</v>
       </c>
@@ -8221,7 +8214,7 @@
       <c r="J218" s="12"/>
       <c r="K218" s="15"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <f>EDATE(A218,1)</f>
         <v>40575</v>
@@ -8242,7 +8235,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A227" si="14">EDATE(A219,1)</f>
         <v>40603</v>
@@ -8263,7 +8256,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <f t="shared" si="14"/>
         <v>40634</v>
@@ -8290,7 +8283,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -8311,7 +8304,7 @@
       <c r="J222" s="12"/>
       <c r="K222" s="15"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <f t="shared" si="14"/>
         <v>40695</v>
@@ -8332,7 +8325,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -8357,7 +8350,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -8382,7 +8375,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -8403,7 +8396,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <f t="shared" si="14"/>
         <v>40817</v>
@@ -8430,7 +8423,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>133</v>
@@ -8449,7 +8442,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>134</v>
@@ -8466,7 +8459,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <f>EDATE(A227,1)</f>
         <v>40848</v>
@@ -8487,7 +8480,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <f>EDATE(A230,1)</f>
         <v>40878</v>
@@ -8508,7 +8501,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="47" t="s">
         <v>137</v>
       </c>
@@ -8526,7 +8519,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>40909</v>
       </c>
@@ -8546,7 +8539,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <f>EDATE(A233,1)</f>
         <v>40940</v>
@@ -8571,7 +8564,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <f t="shared" ref="A235:A246" si="15">EDATE(A234,1)</f>
         <v>40969</v>
@@ -8598,7 +8591,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>48</v>
@@ -8618,7 +8611,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>41000</v>
@@ -8639,7 +8632,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <f t="shared" si="15"/>
         <v>41030</v>
@@ -8664,7 +8657,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>116</v>
@@ -8681,7 +8674,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <f>EDATE(A238,1)</f>
         <v>41061</v>
@@ -8702,7 +8695,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <f t="shared" si="15"/>
         <v>41091</v>
@@ -8723,7 +8716,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <f t="shared" si="15"/>
         <v>41122</v>
@@ -8744,7 +8737,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -8771,7 +8764,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -8792,7 +8785,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
         <f t="shared" si="15"/>
         <v>41214</v>
@@ -8813,7 +8806,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <f t="shared" si="15"/>
         <v>41244</v>
@@ -8834,7 +8827,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="47" t="s">
         <v>142</v>
       </c>
@@ -8852,7 +8845,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>41275</v>
       </c>
@@ -8872,7 +8865,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <f>EDATE(A248,1)</f>
         <v>41306</v>
@@ -8897,7 +8890,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40">
         <f t="shared" ref="A250:A261" si="16">EDATE(A249,1)</f>
         <v>41334</v>
@@ -8918,7 +8911,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <f t="shared" si="16"/>
         <v>41365</v>
@@ -8943,7 +8936,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <f t="shared" si="16"/>
         <v>41395</v>
@@ -8964,7 +8957,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <f t="shared" si="16"/>
         <v>41426</v>
@@ -8985,7 +8978,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -9006,7 +8999,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <f t="shared" si="16"/>
         <v>41487</v>
@@ -9027,7 +9020,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -9052,7 +9045,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>49</v>
@@ -9071,7 +9064,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>50</v>
@@ -9090,7 +9083,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>41548</v>
@@ -9111,7 +9104,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -9138,7 +9131,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -9159,7 +9152,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="47" t="s">
         <v>146</v>
       </c>
@@ -9177,7 +9170,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>41640</v>
       </c>
@@ -9201,7 +9194,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>41671</v>
@@ -9222,7 +9215,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A275" si="17">EDATE(A264,1)</f>
         <v>41699</v>
@@ -9249,7 +9242,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40">
         <f t="shared" si="17"/>
         <v>41730</v>
@@ -9274,7 +9267,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -9295,7 +9288,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <f t="shared" si="17"/>
         <v>41791</v>
@@ -9316,7 +9309,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -9337,7 +9330,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -9364,7 +9357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>48</v>
@@ -9381,7 +9374,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>41883</v>
@@ -9402,7 +9395,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -9425,7 +9418,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -9452,7 +9445,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
         <f t="shared" si="17"/>
         <v>41974</v>
@@ -9473,7 +9466,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="47" t="s">
         <v>149</v>
       </c>
@@ -9491,7 +9484,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>42005</v>
       </c>
@@ -9511,7 +9504,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <f>EDATE(A277,1)</f>
         <v>42036</v>
@@ -9532,7 +9525,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <f t="shared" ref="A279:A290" si="18">EDATE(A278,1)</f>
         <v>42064</v>
@@ -9557,7 +9550,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>48</v>
@@ -9577,7 +9570,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
         <f>EDATE(A279,1)</f>
         <v>42095</v>
@@ -9598,7 +9591,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -9619,7 +9612,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -9646,7 +9639,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -9667,7 +9660,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -9694,7 +9687,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>48</v>
@@ -9714,7 +9707,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>42248</v>
@@ -9735,7 +9728,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40">
         <f>EDATE(A287,1)</f>
         <v>42278</v>
@@ -9756,7 +9749,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -9783,7 +9776,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40">
         <f t="shared" si="18"/>
         <v>42339</v>
@@ -9804,7 +9797,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="47" t="s">
         <v>154</v>
       </c>
@@ -9822,7 +9815,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>42370</v>
       </c>
@@ -9842,7 +9835,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <f>EDATE(A292,1)</f>
         <v>42401</v>
@@ -9863,7 +9856,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <f t="shared" ref="A294:A303" si="19">EDATE(A293,1)</f>
         <v>42430</v>
@@ -9884,7 +9877,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -9909,7 +9902,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -9930,7 +9923,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -9951,7 +9944,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -9972,7 +9965,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -9993,7 +9986,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -10014,7 +10007,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -10035,7 +10028,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <f t="shared" si="19"/>
         <v>42675</v>
@@ -10062,7 +10055,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -10083,7 +10076,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="47" t="s">
         <v>157</v>
       </c>
@@ -10101,7 +10094,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>42736</v>
       </c>
@@ -10127,7 +10120,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <f>EDATE(A305,1)</f>
         <v>42767</v>
@@ -10148,7 +10141,7 @@
       <c r="J306" s="12"/>
       <c r="K306" s="15"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A315" si="20">EDATE(A306,1)</f>
         <v>42795</v>
@@ -10169,7 +10162,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -10194,7 +10187,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>124</v>
@@ -10216,7 +10209,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>42856</v>
@@ -10243,7 +10236,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -10264,7 +10257,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -10285,7 +10278,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -10310,7 +10303,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -10331,7 +10324,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -10352,7 +10345,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40">
         <f>EDATE(A315,1)</f>
         <v>43040</v>
@@ -10379,7 +10372,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>74</v>
@@ -10398,7 +10391,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>43070</v>
@@ -10425,7 +10418,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="47" t="s">
         <v>164</v>
       </c>
@@ -10443,7 +10436,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>43101</v>
       </c>
@@ -10467,7 +10460,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40">
         <f>EDATE(A320,1)</f>
         <v>43132</v>
@@ -10488,7 +10481,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <f t="shared" ref="A322:A335" si="21">EDATE(A321,1)</f>
         <v>43160</v>
@@ -10509,7 +10502,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <f t="shared" si="21"/>
         <v>43191</v>
@@ -10534,7 +10527,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>166</v>
@@ -10553,7 +10546,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>49</v>
@@ -10572,7 +10565,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>49</v>
@@ -10591,7 +10584,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
         <f>EDATE(A323,1)</f>
         <v>43221</v>
@@ -10612,7 +10605,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -10633,7 +10626,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40">
         <f t="shared" si="21"/>
         <v>43282</v>
@@ -10660,7 +10653,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10682,7 +10675,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>43313</v>
@@ -10703,7 +10696,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -10724,7 +10717,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40">
         <f>EDATE(A332,1)</f>
         <v>43374</v>
@@ -10745,7 +10738,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <f t="shared" si="21"/>
         <v>43405</v>
@@ -10766,7 +10759,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
         <f t="shared" si="21"/>
         <v>43435</v>
@@ -10793,7 +10786,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>57</v>
@@ -10813,7 +10806,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>49</v>
@@ -10835,7 +10828,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>57</v>
@@ -10857,7 +10850,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>45</v>
@@ -10879,7 +10872,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>168</v>
@@ -10899,7 +10892,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="47" t="s">
         <v>171</v>
       </c>
@@ -10917,7 +10910,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>43466</v>
       </c>
@@ -10937,7 +10930,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <f>EDATE(A342,1)</f>
         <v>43497</v>
@@ -10958,7 +10951,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <f t="shared" ref="A344:A364" si="22">EDATE(A343,1)</f>
         <v>43525</v>
@@ -10985,7 +10978,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>48</v>
@@ -11002,7 +10995,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>60</v>
@@ -11021,7 +11014,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <f>EDATE(A344,1)</f>
         <v>43556</v>
@@ -11046,7 +11039,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -11073,7 +11066,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>49</v>
@@ -11092,7 +11085,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>47</v>
@@ -11111,7 +11104,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>43617</v>
@@ -11138,7 +11131,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>49</v>
@@ -11157,7 +11150,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>57</v>
@@ -11176,7 +11169,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>43647</v>
@@ -11203,7 +11196,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>176</v>
@@ -11222,7 +11215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <f>EDATE(A354,1)</f>
         <v>43678</v>
@@ -11249,7 +11242,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <f t="shared" si="22"/>
         <v>43709</v>
@@ -11276,7 +11269,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>49</v>
@@ -11295,7 +11288,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>50</v>
@@ -11314,7 +11307,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>57</v>
@@ -11333,7 +11326,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>49</v>
@@ -11352,7 +11345,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40">
         <f>EDATE(A357,1)</f>
         <v>43739</v>
@@ -11373,7 +11366,7 @@
       <c r="J362" s="12"/>
       <c r="K362" s="15"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -11394,7 +11387,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -11415,7 +11408,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="47" t="s">
         <v>180</v>
       </c>
@@ -11433,7 +11426,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
         <v>43831</v>
       </c>
@@ -11457,7 +11450,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
         <f>EDATE(A366,1)</f>
         <v>43862</v>
@@ -11478,7 +11471,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <f t="shared" ref="A368:A381" si="23">EDATE(A367,1)</f>
         <v>43891</v>
@@ -11499,7 +11492,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -11524,7 +11517,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -11545,7 +11538,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -11570,7 +11563,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>57</v>
@@ -11592,7 +11585,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
         <f>EDATE(A371,1)</f>
         <v>44013</v>
@@ -11613,7 +11606,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -11634,7 +11627,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <f>EDATE(A374,1)</f>
         <v>44075</v>
@@ -11661,7 +11654,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>49</v>
@@ -11680,7 +11673,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>119</v>
@@ -11699,7 +11692,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>66</v>
@@ -11721,7 +11714,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <f>EDATE(A375,1)</f>
         <v>44105</v>
@@ -11742,7 +11735,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40">
         <f t="shared" si="23"/>
         <v>44136</v>
@@ -11763,7 +11756,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -11784,7 +11777,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="47" t="s">
         <v>187</v>
       </c>
@@ -11802,7 +11795,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>44197</v>
       </c>
@@ -11826,7 +11819,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <f>EDATE(A383,1)</f>
         <v>44228</v>
@@ -11847,7 +11840,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <f t="shared" ref="A385:A393" si="24">EDATE(A384,1)</f>
         <v>44256</v>
@@ -11868,7 +11861,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <f t="shared" si="24"/>
         <v>44287</v>
@@ -11889,7 +11882,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -11910,7 +11903,7 @@
       <c r="J387" s="12"/>
       <c r="K387" s="15"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -11935,7 +11928,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <f t="shared" si="24"/>
         <v>44378</v>
@@ -11956,7 +11949,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -11977,7 +11970,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -12004,7 +11997,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <f>EDATE(A391,1)</f>
         <v>44470</v>
@@ -12025,7 +12018,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -12052,7 +12045,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>66</v>
@@ -12074,7 +12067,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>44531</v>
@@ -12099,7 +12092,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="47" t="s">
         <v>193</v>
       </c>
@@ -12117,7 +12110,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>44562</v>
       </c>
@@ -12137,7 +12130,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>44593</v>
@@ -12158,7 +12151,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A403" si="25">EDATE(A398,1)</f>
         <v>44621</v>
@@ -12179,7 +12172,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <f t="shared" si="25"/>
         <v>44652</v>
@@ -12204,7 +12197,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -12225,7 +12218,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <f t="shared" si="25"/>
         <v>44713</v>
@@ -12246,7 +12239,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <f t="shared" si="25"/>
         <v>44743</v>
@@ -12273,7 +12266,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>49</v>
@@ -12290,7 +12283,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>50</v>
@@ -12307,7 +12300,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="15" t="s">
         <v>60</v>
@@ -12324,7 +12317,7 @@
       <c r="J406" s="12"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>47</v>
@@ -12343,7 +12336,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>47</v>
@@ -12362,7 +12355,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="52">
         <v>44774</v>
       </c>
@@ -12382,7 +12375,7 @@
       <c r="J409" s="12"/>
       <c r="K409" s="15"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
         <v>44805</v>
       </c>
@@ -12406,7 +12399,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>44835</v>
       </c>
@@ -12426,7 +12419,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="52">
         <v>44866</v>
       </c>
@@ -12452,7 +12445,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="52"/>
       <c r="B413" s="15" t="s">
         <v>201</v>
@@ -12474,7 +12467,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>44896</v>
       </c>
@@ -12500,7 +12493,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>200</v>
@@ -12522,7 +12515,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="47" t="s">
         <v>198</v>
       </c>
@@ -12540,7 +12533,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>44927</v>
       </c>
@@ -12564,7 +12557,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>44958</v>
       </c>
@@ -12584,11 +12577,13 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>44986</v>
       </c>
-      <c r="B419" s="20"/>
+      <c r="B419" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="C419" s="13">
         <v>1.25</v>
       </c>
@@ -12599,13 +12594,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H419" s="39"/>
+      <c r="H419" s="39">
+        <v>1</v>
+      </c>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
-    </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40"/>
+      <c r="K419" s="51">
+        <v>45014</v>
+      </c>
+    </row>
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A420" s="40">
+        <v>45017</v>
+      </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
       <c r="D420" s="39"/>
@@ -12620,8 +12621,10 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="40"/>
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A421" s="40">
+        <v>45047</v>
+      </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
@@ -12636,8 +12639,10 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40"/>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A422" s="40">
+        <v>45078</v>
+      </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
@@ -12652,8 +12657,10 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A423" s="40"/>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A423" s="40">
+        <v>45108</v>
+      </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
@@ -12668,8 +12675,10 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="40"/>
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A424" s="40">
+        <v>45139</v>
+      </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
@@ -12684,8 +12693,10 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="40"/>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A425" s="40">
+        <v>45170</v>
+      </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
       <c r="D425" s="39"/>
@@ -12700,8 +12711,10 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A426" s="40"/>
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A426" s="40">
+        <v>45200</v>
+      </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
@@ -12716,8 +12729,10 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A427" s="40"/>
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A427" s="40">
+        <v>45231</v>
+      </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
       <c r="D427" s="39"/>
@@ -12732,8 +12747,10 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A428" s="40"/>
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A428" s="40">
+        <v>45261</v>
+      </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
       <c r="D428" s="39"/>
@@ -12748,8 +12765,10 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A429" s="40"/>
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A429" s="40">
+        <v>45292</v>
+      </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
       <c r="D429" s="39"/>
@@ -12764,8 +12783,10 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A430" s="40"/>
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A430" s="40">
+        <v>45323</v>
+      </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
       <c r="D430" s="39"/>
@@ -12780,8 +12801,10 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A431" s="40"/>
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A431" s="40">
+        <v>45352</v>
+      </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
       <c r="D431" s="39"/>
@@ -12796,8 +12819,10 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A432" s="40"/>
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A432" s="40">
+        <v>45383</v>
+      </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
       <c r="D432" s="39"/>
@@ -12812,8 +12837,10 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A433" s="40"/>
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A433" s="40">
+        <v>45413</v>
+      </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
       <c r="D433" s="39"/>
@@ -12828,7 +12855,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40"/>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12844,7 +12871,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12860,7 +12887,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12876,7 +12903,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="52"/>
       <c r="B437" s="15"/>
       <c r="C437" s="41"/>
@@ -12907,10 +12934,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12933,7 +12960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12941,21 +12968,21 @@
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -12968,7 +12995,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -12997,7 +13024,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13023,17 +13050,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13054,7 +13081,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13081,7 +13108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13107,7 +13134,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13133,7 +13160,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13159,7 +13186,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13185,7 +13212,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13211,7 +13238,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13237,7 +13264,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13263,7 +13290,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13283,7 +13310,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13303,7 +13330,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13323,7 +13350,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13344,7 +13371,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13365,7 +13392,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13386,7 +13413,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13407,7 +13434,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13428,7 +13455,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13449,7 +13476,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13470,7 +13497,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13491,7 +13518,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13512,7 +13539,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13533,7 +13560,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13554,7 +13581,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13575,7 +13602,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13596,7 +13623,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13617,7 +13644,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13638,7 +13665,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13659,7 +13686,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13680,7 +13707,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13701,7 +13728,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13722,7 +13749,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13743,7 +13770,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13752,7 +13779,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13761,7 +13788,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13770,7 +13797,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13779,7 +13806,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13788,7 +13815,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13797,7 +13824,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13806,7 +13833,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13815,7 +13842,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13824,7 +13851,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13833,7 +13860,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13842,7 +13869,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13851,7 +13878,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13860,7 +13887,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13869,7 +13896,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13878,7 +13905,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13887,7 +13914,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13896,7 +13923,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13905,7 +13932,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13914,7 +13941,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13923,7 +13950,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13932,7 +13959,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13941,7 +13968,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -13950,7 +13977,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -13959,7 +13986,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -13968,7 +13995,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -13977,7 +14004,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -13986,7 +14013,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -13995,7 +14022,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14004,7 +14031,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E75F5585-7711-4B82-8F56-194320102004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0469033-C2EA-4E78-8843-3532802EA32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="207">
   <si>
     <t>PERIOD</t>
   </si>
@@ -650,6 +650,12 @@
   </si>
   <si>
     <t>12/12-14/2022</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>3/17,20/2023</t>
   </si>
 </sst>
 </file>
@@ -3078,7 +3084,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K437" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3181,7 +3187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3233,7 +3239,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3456,12 +3462,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K437"/>
+  <dimension ref="A2:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1896" topLeftCell="A419" activePane="bottomLeft"/>
+      <pane ySplit="1896" topLeftCell="A413" activePane="bottomLeft"/>
       <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="H420" sqref="H420"/>
+      <selection pane="bottomLeft" activeCell="B421" sqref="B421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12604,10 +12610,10 @@
       </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A420" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B420" s="20"/>
+      <c r="A420" s="40"/>
+      <c r="B420" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="C420" s="13"/>
       <c r="D420" s="39"/>
       <c r="E420" s="9"/>
@@ -12619,11 +12625,13 @@
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
+      <c r="K420" s="51" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12641,7 +12649,7 @@
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12659,7 +12667,7 @@
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -12677,7 +12685,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -12695,7 +12703,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -12713,7 +12721,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -12731,7 +12739,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -12749,7 +12757,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -12767,7 +12775,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -12785,7 +12793,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12803,7 +12811,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12821,7 +12829,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12839,7 +12847,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12856,7 +12864,9 @@
       <c r="K433" s="20"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A434" s="40"/>
+      <c r="A434" s="40">
+        <v>45413</v>
+      </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
       <c r="D434" s="39"/>
@@ -12904,20 +12914,36 @@
       <c r="K436" s="20"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A437" s="52"/>
-      <c r="B437" s="15"/>
-      <c r="C437" s="41"/>
-      <c r="D437" s="42"/>
-      <c r="E437" s="53"/>
-      <c r="F437" s="15"/>
-      <c r="G437" s="41" t="str">
+      <c r="A437" s="40"/>
+      <c r="B437" s="20"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="39"/>
+      <c r="E437" s="9"/>
+      <c r="F437" s="20"/>
+      <c r="G437" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H437" s="42"/>
-      <c r="I437" s="53"/>
-      <c r="J437" s="12"/>
-      <c r="K437" s="15"/>
+      <c r="H437" s="39"/>
+      <c r="I437" s="9"/>
+      <c r="J437" s="11"/>
+      <c r="K437" s="20"/>
+    </row>
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A438" s="52"/>
+      <c r="B438" s="15"/>
+      <c r="C438" s="41"/>
+      <c r="D438" s="42"/>
+      <c r="E438" s="53"/>
+      <c r="F438" s="15"/>
+      <c r="G438" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H438" s="42"/>
+      <c r="I438" s="53"/>
+      <c r="J438" s="12"/>
+      <c r="K438" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0469033-C2EA-4E78-8843-3532802EA32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
   <si>
     <t>PERIOD</t>
   </si>
@@ -656,12 +655,15 @@
   </si>
   <si>
     <t>3/17,20/2023</t>
+  </si>
+  <si>
+    <t>BDAY 4/24/23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1549,7 +1551,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1592,7 +1594,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1656,7 +1658,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1718,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1782,7 +1784,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1845,7 +1847,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1945,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2002,7 +2004,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2067,7 +2069,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2110,7 +2112,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2185,7 +2187,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2373,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2437,7 +2439,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2497,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2561,7 +2563,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2617,7 +2619,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,7 +2694,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2737,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2801,7 +2803,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2857,7 +2859,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2955,7 +2957,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,7 +3020,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3084,25 +3086,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3114,13 +3116,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3129,14 +3131,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3440,7 +3442,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3450,7 +3452,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3458,34 +3460,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K438"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1896" topLeftCell="A413" activePane="bottomLeft"/>
+      <pane ySplit="1890" topLeftCell="A413" activePane="bottomLeft"/>
       <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="B421" sqref="B421"/>
+      <selection pane="bottomLeft" activeCell="B422" sqref="B422"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3506,7 +3508,7 @@
       <c r="J2" s="59"/>
       <c r="K2" s="60"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3524,7 +3526,7 @@
       <c r="J3" s="61"/>
       <c r="K3" s="62"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3542,7 +3544,7 @@
       <c r="J4" s="63"/>
       <c r="K4" s="64"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3550,7 +3552,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3563,7 +3565,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="57" t="s">
@@ -3580,7 +3582,7 @@
       <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3615,7 +3617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3639,7 +3641,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3661,7 +3663,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>35219</v>
       </c>
@@ -3681,7 +3683,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35247</v>
       </c>
@@ -3701,7 +3703,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>35278</v>
       </c>
@@ -3721,7 +3723,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>35309</v>
       </c>
@@ -3741,7 +3743,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>35339</v>
       </c>
@@ -3761,7 +3763,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>35370</v>
       </c>
@@ -3781,7 +3783,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>35400</v>
       </c>
@@ -3801,7 +3803,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
         <v>44</v>
       </c>
@@ -3819,7 +3821,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>35431</v>
       </c>
@@ -3839,7 +3841,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <f>EDATE(A19,1)</f>
         <v>35462</v>
@@ -3866,7 +3868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <f t="shared" ref="A21:A31" si="0">EDATE(A20,1)</f>
         <v>35490</v>
@@ -3893,7 +3895,7 @@
         <v>45009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>48</v>
@@ -3913,7 +3915,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <f>EDATE(A21,1)</f>
         <v>35521</v>
@@ -3934,7 +3936,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <f t="shared" si="0"/>
         <v>35551</v>
@@ -3955,7 +3957,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <f t="shared" si="0"/>
         <v>35582</v>
@@ -3976,7 +3978,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <f t="shared" si="0"/>
         <v>35612</v>
@@ -3997,7 +3999,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <f t="shared" si="0"/>
         <v>35643</v>
@@ -4024,7 +4026,7 @@
         <v>45150</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <f t="shared" si="0"/>
         <v>35674</v>
@@ -4051,7 +4053,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <f t="shared" si="0"/>
         <v>35704</v>
@@ -4072,7 +4074,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <f>EDATE(A29,1)</f>
         <v>35735</v>
@@ -4099,7 +4101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <f t="shared" si="0"/>
         <v>35765</v>
@@ -4124,7 +4126,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>53</v>
@@ -4144,7 +4146,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
         <v>54</v>
       </c>
@@ -4162,7 +4164,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35796</v>
       </c>
@@ -4182,7 +4184,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <f>EDATE(A34,1)</f>
         <v>35827</v>
@@ -4209,7 +4211,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <f t="shared" ref="A36:A45" si="1">EDATE(A35,1)</f>
         <v>35855</v>
@@ -4236,7 +4238,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <f t="shared" si="1"/>
         <v>35886</v>
@@ -4257,7 +4259,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <f t="shared" si="1"/>
         <v>35916</v>
@@ -4278,7 +4280,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <f t="shared" si="1"/>
         <v>35947</v>
@@ -4299,7 +4301,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <f t="shared" si="1"/>
         <v>35977</v>
@@ -4326,7 +4328,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <f t="shared" si="1"/>
         <v>36008</v>
@@ -4347,7 +4349,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <f t="shared" si="1"/>
         <v>36039</v>
@@ -4368,7 +4370,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <f t="shared" si="1"/>
         <v>36069</v>
@@ -4389,7 +4391,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <f t="shared" si="1"/>
         <v>36100</v>
@@ -4410,7 +4412,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <f t="shared" si="1"/>
         <v>36130</v>
@@ -4437,7 +4439,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>60</v>
@@ -4459,7 +4461,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
         <v>62</v>
       </c>
@@ -4477,7 +4479,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36161</v>
       </c>
@@ -4497,7 +4499,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <f>EDATE(A48,1)</f>
         <v>36192</v>
@@ -4518,7 +4520,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <f t="shared" ref="A50:A59" si="2">EDATE(A49,1)</f>
         <v>36220</v>
@@ -4539,7 +4541,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <f t="shared" si="2"/>
         <v>36251</v>
@@ -4560,7 +4562,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <f t="shared" si="2"/>
         <v>36281</v>
@@ -4581,7 +4583,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <f t="shared" si="2"/>
         <v>36312</v>
@@ -4602,7 +4604,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <f t="shared" si="2"/>
         <v>36342</v>
@@ -4623,7 +4625,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <f t="shared" si="2"/>
         <v>36373</v>
@@ -4650,7 +4652,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <f t="shared" si="2"/>
         <v>36404</v>
@@ -4671,7 +4673,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <f t="shared" si="2"/>
         <v>36434</v>
@@ -4692,7 +4694,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <f t="shared" si="2"/>
         <v>36465</v>
@@ -4719,7 +4721,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <f t="shared" si="2"/>
         <v>36495</v>
@@ -4740,7 +4742,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
         <v>65</v>
       </c>
@@ -4760,7 +4762,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36526</v>
       </c>
@@ -4780,7 +4782,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <f>EDATE(A61,1)</f>
         <v>36557</v>
@@ -4801,7 +4803,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <f t="shared" ref="A63:A72" si="3">EDATE(A62,1)</f>
         <v>36586</v>
@@ -4822,7 +4824,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <f t="shared" si="3"/>
         <v>36617</v>
@@ -4849,7 +4851,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <f t="shared" si="3"/>
         <v>36647</v>
@@ -4870,7 +4872,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <f t="shared" si="3"/>
         <v>36678</v>
@@ -4891,7 +4893,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <f t="shared" si="3"/>
         <v>36708</v>
@@ -4912,7 +4914,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <f t="shared" si="3"/>
         <v>36739</v>
@@ -4939,7 +4941,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <f t="shared" si="3"/>
         <v>36770</v>
@@ -4960,7 +4962,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <f t="shared" si="3"/>
         <v>36800</v>
@@ -4981,7 +4983,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <f>EDATE(A70,1)</f>
         <v>36831</v>
@@ -5002,7 +5004,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <f t="shared" si="3"/>
         <v>36861</v>
@@ -5027,7 +5029,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -5043,7 +5045,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
         <v>70</v>
       </c>
@@ -5061,7 +5063,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36892</v>
       </c>
@@ -5085,7 +5087,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <f>EDATE(A75,1)</f>
         <v>36923</v>
@@ -5112,7 +5114,7 @@
         <v>44977</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <f t="shared" ref="A77:A86" si="4">EDATE(A76,1)</f>
         <v>36951</v>
@@ -5133,7 +5135,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <f t="shared" si="4"/>
         <v>36982</v>
@@ -5154,7 +5156,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <f t="shared" si="4"/>
         <v>37012</v>
@@ -5175,7 +5177,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <f t="shared" si="4"/>
         <v>37043</v>
@@ -5196,7 +5198,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <f t="shared" si="4"/>
         <v>37073</v>
@@ -5217,7 +5219,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <f t="shared" si="4"/>
         <v>37104</v>
@@ -5238,7 +5240,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <f t="shared" si="4"/>
         <v>37135</v>
@@ -5263,7 +5265,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <f t="shared" si="4"/>
         <v>37165</v>
@@ -5284,7 +5286,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <f>EDATE(A84,1)</f>
         <v>37196</v>
@@ -5305,7 +5307,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <f t="shared" si="4"/>
         <v>37226</v>
@@ -5330,7 +5332,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
         <v>75</v>
       </c>
@@ -5348,7 +5350,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37257</v>
       </c>
@@ -5368,7 +5370,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <f>EDATE(A88,1)</f>
         <v>37288</v>
@@ -5389,7 +5391,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <f t="shared" ref="A90:A99" si="5">EDATE(A89,1)</f>
         <v>37316</v>
@@ -5410,7 +5412,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <f t="shared" si="5"/>
         <v>37347</v>
@@ -5431,7 +5433,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <f t="shared" si="5"/>
         <v>37377</v>
@@ -5452,7 +5454,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <f t="shared" si="5"/>
         <v>37408</v>
@@ -5473,7 +5475,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <f t="shared" si="5"/>
         <v>37438</v>
@@ -5494,7 +5496,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <f t="shared" si="5"/>
         <v>37469</v>
@@ -5515,7 +5517,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <f t="shared" si="5"/>
         <v>37500</v>
@@ -5536,7 +5538,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <f t="shared" si="5"/>
         <v>37530</v>
@@ -5563,7 +5565,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <f t="shared" si="5"/>
         <v>37561</v>
@@ -5584,7 +5586,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <f t="shared" si="5"/>
         <v>37591</v>
@@ -5609,7 +5611,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
         <v>78</v>
       </c>
@@ -5627,7 +5629,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37622</v>
       </c>
@@ -5647,7 +5649,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <f>EDATE(A101,1)</f>
         <v>37653</v>
@@ -5668,7 +5670,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <f t="shared" ref="A103:A111" si="6">EDATE(A102,1)</f>
         <v>37681</v>
@@ -5693,7 +5695,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <f t="shared" si="6"/>
         <v>37712</v>
@@ -5718,7 +5720,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <f t="shared" si="6"/>
         <v>37742</v>
@@ -5739,7 +5741,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <f t="shared" si="6"/>
         <v>37773</v>
@@ -5760,7 +5762,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <f t="shared" si="6"/>
         <v>37803</v>
@@ -5781,7 +5783,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <f t="shared" si="6"/>
         <v>37834</v>
@@ -5802,7 +5804,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <f t="shared" si="6"/>
         <v>37865</v>
@@ -5823,7 +5825,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <f t="shared" si="6"/>
         <v>37895</v>
@@ -5844,7 +5846,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <f t="shared" si="6"/>
         <v>37926</v>
@@ -5865,7 +5867,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <f>EDATE(A111,1)</f>
         <v>37956</v>
@@ -5892,7 +5894,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>83</v>
@@ -5912,7 +5914,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>84</v>
       </c>
@@ -5930,7 +5932,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37987</v>
       </c>
@@ -5950,7 +5952,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <f>EDATE(A115,1)</f>
         <v>38018</v>
@@ -5971,7 +5973,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <f t="shared" ref="A117:A127" si="7">EDATE(A116,1)</f>
         <v>38047</v>
@@ -5992,7 +5994,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <f t="shared" si="7"/>
         <v>38078</v>
@@ -6013,7 +6015,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <f t="shared" si="7"/>
         <v>38108</v>
@@ -6034,7 +6036,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <f t="shared" si="7"/>
         <v>38139</v>
@@ -6061,7 +6063,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>87</v>
@@ -6081,7 +6083,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <f>EDATE(A120,1)</f>
         <v>38169</v>
@@ -6106,7 +6108,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <f t="shared" si="7"/>
         <v>38200</v>
@@ -6131,7 +6133,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <f t="shared" si="7"/>
         <v>38231</v>
@@ -6152,7 +6154,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <f t="shared" si="7"/>
         <v>38261</v>
@@ -6177,7 +6179,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <f t="shared" si="7"/>
         <v>38292</v>
@@ -6198,7 +6200,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <f t="shared" si="7"/>
         <v>38322</v>
@@ -6219,7 +6221,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
         <v>85</v>
       </c>
@@ -6237,7 +6239,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38353</v>
       </c>
@@ -6263,7 +6265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <f>EDATE(A129,1)</f>
         <v>38384</v>
@@ -6284,7 +6286,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <f t="shared" ref="A131:A139" si="8">EDATE(A130,1)</f>
         <v>38412</v>
@@ -6305,7 +6307,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <f t="shared" si="8"/>
         <v>38443</v>
@@ -6326,7 +6328,7 @@
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <f t="shared" si="8"/>
         <v>38473</v>
@@ -6347,7 +6349,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="15"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <f t="shared" si="8"/>
         <v>38504</v>
@@ -6368,7 +6370,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="15"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <f t="shared" si="8"/>
         <v>38534</v>
@@ -6389,7 +6391,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="15"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <f t="shared" si="8"/>
         <v>38565</v>
@@ -6410,7 +6412,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="15"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <f t="shared" si="8"/>
         <v>38596</v>
@@ -6435,7 +6437,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <f t="shared" si="8"/>
         <v>38626</v>
@@ -6462,7 +6464,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <f t="shared" si="8"/>
         <v>38657</v>
@@ -6483,7 +6485,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <f>EDATE(A139,1)</f>
         <v>38687</v>
@@ -6504,7 +6506,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="15"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
         <v>93</v>
       </c>
@@ -6522,7 +6524,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="15"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38718</v>
       </c>
@@ -6542,7 +6544,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="15"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <f>EDATE(A142,1)</f>
         <v>38749</v>
@@ -6563,7 +6565,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="15"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <f t="shared" ref="A144:A153" si="9">EDATE(A143,1)</f>
         <v>38777</v>
@@ -6584,7 +6586,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="15"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <f t="shared" si="9"/>
         <v>38808</v>
@@ -6605,7 +6607,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="15"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <f t="shared" si="9"/>
         <v>38838</v>
@@ -6626,7 +6628,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="15"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <f t="shared" si="9"/>
         <v>38869</v>
@@ -6647,7 +6649,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="15"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <f t="shared" si="9"/>
         <v>38899</v>
@@ -6668,7 +6670,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="15"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <f t="shared" si="9"/>
         <v>38930</v>
@@ -6695,7 +6697,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
         <v>48</v>
@@ -6715,7 +6717,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <f>EDATE(A149,1)</f>
         <v>38961</v>
@@ -6740,7 +6742,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <f t="shared" si="9"/>
         <v>38991</v>
@@ -6761,7 +6763,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="15"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <f t="shared" si="9"/>
         <v>39022</v>
@@ -6788,7 +6790,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <f>EDATE(A153,1)</f>
         <v>39052</v>
@@ -6809,7 +6811,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="15"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="47" t="s">
         <v>98</v>
       </c>
@@ -6827,7 +6829,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="15"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>39083</v>
       </c>
@@ -6851,7 +6853,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="15"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <f>EDATE(A156,1)</f>
         <v>39114</v>
@@ -6876,7 +6878,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="15"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <f t="shared" ref="A158:A172" si="10">EDATE(A157,1)</f>
         <v>39142</v>
@@ -6901,7 +6903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>48</v>
@@ -6921,7 +6923,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <f>EDATE(A158,1)</f>
         <v>39173</v>
@@ -6942,7 +6944,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="15"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <f t="shared" si="10"/>
         <v>39203</v>
@@ -6963,7 +6965,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <f t="shared" si="10"/>
         <v>39234</v>
@@ -6990,7 +6992,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>103</v>
@@ -7009,7 +7011,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>100</v>
@@ -7026,7 +7028,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <f>EDATE(A162,1)</f>
         <v>39264</v>
@@ -7047,7 +7049,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <f t="shared" si="10"/>
         <v>39295</v>
@@ -7072,7 +7074,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <f t="shared" si="10"/>
         <v>39326</v>
@@ -7093,7 +7095,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <f t="shared" si="10"/>
         <v>39356</v>
@@ -7120,7 +7122,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>57</v>
@@ -7139,7 +7141,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>69</v>
@@ -7158,7 +7160,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <f>EDATE(A168,1)</f>
         <v>39387</v>
@@ -7185,7 +7187,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <f t="shared" si="10"/>
         <v>39417</v>
@@ -7212,7 +7214,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
         <v>113</v>
       </c>
@@ -7230,7 +7232,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39448</v>
       </c>
@@ -7250,7 +7252,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <f>EDATE(A174,1)</f>
         <v>39479</v>
@@ -7271,7 +7273,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <f t="shared" ref="A176:A185" si="11">EDATE(A175,1)</f>
         <v>39508</v>
@@ -7296,7 +7298,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <f t="shared" si="11"/>
         <v>39539</v>
@@ -7321,7 +7323,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <f t="shared" si="11"/>
         <v>39569</v>
@@ -7342,7 +7344,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <f t="shared" si="11"/>
         <v>39600</v>
@@ -7363,7 +7365,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <f t="shared" si="11"/>
         <v>39630</v>
@@ -7384,7 +7386,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <f t="shared" si="11"/>
         <v>39661</v>
@@ -7405,7 +7407,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <f t="shared" si="11"/>
         <v>39692</v>
@@ -7430,7 +7432,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>57</v>
@@ -7449,7 +7451,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <f>EDATE(A182,1)</f>
         <v>39722</v>
@@ -7476,7 +7478,7 @@
         <v>43800</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <f t="shared" si="11"/>
         <v>39753</v>
@@ -7497,7 +7499,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <f>EDATE(A185,1)</f>
         <v>39783</v>
@@ -7522,7 +7524,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
         <v>118</v>
       </c>
@@ -7540,7 +7542,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39814</v>
       </c>
@@ -7560,7 +7562,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <f>EDATE(A188,1)</f>
         <v>39845</v>
@@ -7581,7 +7583,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <f t="shared" ref="A190:A201" si="12">EDATE(A189,1)</f>
         <v>39873</v>
@@ -7602,7 +7604,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <f t="shared" si="12"/>
         <v>39904</v>
@@ -7627,7 +7629,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <f t="shared" si="12"/>
         <v>39934</v>
@@ -7648,7 +7650,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <f t="shared" si="12"/>
         <v>39965</v>
@@ -7669,7 +7671,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <f t="shared" si="12"/>
         <v>39995</v>
@@ -7690,7 +7692,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <f t="shared" si="12"/>
         <v>40026</v>
@@ -7711,7 +7713,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <f t="shared" si="12"/>
         <v>40057</v>
@@ -7738,7 +7740,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>74</v>
@@ -7757,7 +7759,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>119</v>
@@ -7776,7 +7778,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <f>EDATE(A196,1)</f>
         <v>40087</v>
@@ -7797,7 +7799,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <f>EDATE(A199,1)</f>
         <v>40118</v>
@@ -7818,7 +7820,7 @@
       <c r="J200" s="12"/>
       <c r="K200" s="15"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <f t="shared" si="12"/>
         <v>40148</v>
@@ -7839,7 +7841,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
         <v>122</v>
       </c>
@@ -7857,7 +7859,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40179</v>
       </c>
@@ -7881,7 +7883,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <f>EDATE(A203,1)</f>
         <v>40210</v>
@@ -7908,7 +7910,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>116</v>
@@ -7928,7 +7930,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <f>EDATE(A204,1)</f>
         <v>40238</v>
@@ -7953,7 +7955,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <f t="shared" ref="A207:A216" si="13">EDATE(A206,1)</f>
         <v>40269</v>
@@ -7976,7 +7978,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <f t="shared" si="13"/>
         <v>40299</v>
@@ -8003,7 +8005,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>127</v>
@@ -8023,7 +8025,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <f>EDATE(A208,1)</f>
         <v>40330</v>
@@ -8050,7 +8052,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <f t="shared" si="13"/>
         <v>40360</v>
@@ -8077,7 +8079,7 @@
         <v>44013</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <f t="shared" si="13"/>
         <v>40391</v>
@@ -8098,7 +8100,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <f t="shared" si="13"/>
         <v>40422</v>
@@ -8119,7 +8121,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <f t="shared" si="13"/>
         <v>40452</v>
@@ -8140,7 +8142,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <f t="shared" si="13"/>
         <v>40483</v>
@@ -8161,7 +8163,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <f t="shared" si="13"/>
         <v>40513</v>
@@ -8182,7 +8184,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="47" t="s">
         <v>130</v>
       </c>
@@ -8200,7 +8202,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="52">
         <v>40544</v>
       </c>
@@ -8220,7 +8222,7 @@
       <c r="J218" s="12"/>
       <c r="K218" s="15"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <f>EDATE(A218,1)</f>
         <v>40575</v>
@@ -8241,7 +8243,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <f t="shared" ref="A220:A227" si="14">EDATE(A219,1)</f>
         <v>40603</v>
@@ -8262,7 +8264,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <f t="shared" si="14"/>
         <v>40634</v>
@@ -8289,7 +8291,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <f t="shared" si="14"/>
         <v>40664</v>
@@ -8310,7 +8312,7 @@
       <c r="J222" s="12"/>
       <c r="K222" s="15"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <f t="shared" si="14"/>
         <v>40695</v>
@@ -8331,7 +8333,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <f t="shared" si="14"/>
         <v>40725</v>
@@ -8356,7 +8358,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <f t="shared" si="14"/>
         <v>40756</v>
@@ -8381,7 +8383,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <f t="shared" si="14"/>
         <v>40787</v>
@@ -8402,7 +8404,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <f t="shared" si="14"/>
         <v>40817</v>
@@ -8429,7 +8431,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>133</v>
@@ -8448,7 +8450,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>134</v>
@@ -8465,7 +8467,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <f>EDATE(A227,1)</f>
         <v>40848</v>
@@ -8486,7 +8488,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <f>EDATE(A230,1)</f>
         <v>40878</v>
@@ -8507,7 +8509,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="47" t="s">
         <v>137</v>
       </c>
@@ -8525,7 +8527,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40909</v>
       </c>
@@ -8545,7 +8547,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <f>EDATE(A233,1)</f>
         <v>40940</v>
@@ -8570,7 +8572,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <f t="shared" ref="A235:A246" si="15">EDATE(A234,1)</f>
         <v>40969</v>
@@ -8597,7 +8599,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
         <v>48</v>
@@ -8617,7 +8619,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <f>EDATE(A235,1)</f>
         <v>41000</v>
@@ -8638,7 +8640,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <f t="shared" si="15"/>
         <v>41030</v>
@@ -8663,7 +8665,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>116</v>
@@ -8680,7 +8682,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <f>EDATE(A238,1)</f>
         <v>41061</v>
@@ -8701,7 +8703,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <f t="shared" si="15"/>
         <v>41091</v>
@@ -8722,7 +8724,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <f t="shared" si="15"/>
         <v>41122</v>
@@ -8743,7 +8745,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <f t="shared" si="15"/>
         <v>41153</v>
@@ -8770,7 +8772,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <f t="shared" si="15"/>
         <v>41183</v>
@@ -8791,7 +8793,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <f t="shared" si="15"/>
         <v>41214</v>
@@ -8812,7 +8814,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <f t="shared" si="15"/>
         <v>41244</v>
@@ -8833,7 +8835,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
         <v>142</v>
       </c>
@@ -8851,7 +8853,7 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>41275</v>
       </c>
@@ -8871,7 +8873,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <f>EDATE(A248,1)</f>
         <v>41306</v>
@@ -8896,7 +8898,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <f t="shared" ref="A250:A261" si="16">EDATE(A249,1)</f>
         <v>41334</v>
@@ -8917,7 +8919,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <f t="shared" si="16"/>
         <v>41365</v>
@@ -8942,7 +8944,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <f t="shared" si="16"/>
         <v>41395</v>
@@ -8963,7 +8965,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <f t="shared" si="16"/>
         <v>41426</v>
@@ -8984,7 +8986,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <f t="shared" si="16"/>
         <v>41456</v>
@@ -9005,7 +9007,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <f t="shared" si="16"/>
         <v>41487</v>
@@ -9026,7 +9028,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <f t="shared" si="16"/>
         <v>41518</v>
@@ -9051,7 +9053,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>49</v>
@@ -9070,7 +9072,7 @@
         <v>45173</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>50</v>
@@ -9089,7 +9091,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <f>EDATE(A256,1)</f>
         <v>41548</v>
@@ -9110,7 +9112,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <f t="shared" si="16"/>
         <v>41579</v>
@@ -9137,7 +9139,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <f t="shared" si="16"/>
         <v>41609</v>
@@ -9158,7 +9160,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
         <v>146</v>
       </c>
@@ -9176,7 +9178,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>41640</v>
       </c>
@@ -9200,7 +9202,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <f>EDATE(A263,1)</f>
         <v>41671</v>
@@ -9221,7 +9223,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <f t="shared" ref="A265:A275" si="17">EDATE(A264,1)</f>
         <v>41699</v>
@@ -9248,7 +9250,7 @@
         <v>42795</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <f t="shared" si="17"/>
         <v>41730</v>
@@ -9273,7 +9275,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <f t="shared" si="17"/>
         <v>41760</v>
@@ -9294,7 +9296,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <f t="shared" si="17"/>
         <v>41791</v>
@@ -9315,7 +9317,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <f t="shared" si="17"/>
         <v>41821</v>
@@ -9336,7 +9338,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <f t="shared" si="17"/>
         <v>41852</v>
@@ -9363,7 +9365,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>48</v>
@@ -9380,7 +9382,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <f>EDATE(A270,1)</f>
         <v>41883</v>
@@ -9401,7 +9403,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <f t="shared" si="17"/>
         <v>41913</v>
@@ -9424,7 +9426,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <f t="shared" si="17"/>
         <v>41944</v>
@@ -9451,7 +9453,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <f t="shared" si="17"/>
         <v>41974</v>
@@ -9472,7 +9474,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
         <v>149</v>
       </c>
@@ -9490,7 +9492,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>42005</v>
       </c>
@@ -9510,7 +9512,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <f>EDATE(A277,1)</f>
         <v>42036</v>
@@ -9531,7 +9533,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <f t="shared" ref="A279:A290" si="18">EDATE(A278,1)</f>
         <v>42064</v>
@@ -9556,7 +9558,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>48</v>
@@ -9576,7 +9578,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <f>EDATE(A279,1)</f>
         <v>42095</v>
@@ -9597,7 +9599,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <f t="shared" si="18"/>
         <v>42125</v>
@@ -9618,7 +9620,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <f t="shared" si="18"/>
         <v>42156</v>
@@ -9645,7 +9647,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <f t="shared" si="18"/>
         <v>42186</v>
@@ -9666,7 +9668,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <f t="shared" si="18"/>
         <v>42217</v>
@@ -9693,7 +9695,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>48</v>
@@ -9713,7 +9715,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <f>EDATE(A285,1)</f>
         <v>42248</v>
@@ -9734,7 +9736,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <f>EDATE(A287,1)</f>
         <v>42278</v>
@@ -9755,7 +9757,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <f t="shared" si="18"/>
         <v>42309</v>
@@ -9782,7 +9784,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <f t="shared" si="18"/>
         <v>42339</v>
@@ -9803,7 +9805,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="47" t="s">
         <v>154</v>
       </c>
@@ -9821,7 +9823,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>42370</v>
       </c>
@@ -9841,7 +9843,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <f>EDATE(A292,1)</f>
         <v>42401</v>
@@ -9862,7 +9864,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <f t="shared" ref="A294:A303" si="19">EDATE(A293,1)</f>
         <v>42430</v>
@@ -9883,7 +9885,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <f t="shared" si="19"/>
         <v>42461</v>
@@ -9908,7 +9910,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <f t="shared" si="19"/>
         <v>42491</v>
@@ -9929,7 +9931,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <f t="shared" si="19"/>
         <v>42522</v>
@@ -9950,7 +9952,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <f t="shared" si="19"/>
         <v>42552</v>
@@ -9971,7 +9973,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <f t="shared" si="19"/>
         <v>42583</v>
@@ -9992,7 +9994,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <f t="shared" si="19"/>
         <v>42614</v>
@@ -10013,7 +10015,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <f t="shared" si="19"/>
         <v>42644</v>
@@ -10034,7 +10036,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <f t="shared" si="19"/>
         <v>42675</v>
@@ -10061,7 +10063,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <f t="shared" si="19"/>
         <v>42705</v>
@@ -10082,7 +10084,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="47" t="s">
         <v>157</v>
       </c>
@@ -10100,7 +10102,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>42736</v>
       </c>
@@ -10126,7 +10128,7 @@
         <v>43101</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <f>EDATE(A305,1)</f>
         <v>42767</v>
@@ -10147,7 +10149,7 @@
       <c r="J306" s="12"/>
       <c r="K306" s="15"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <f t="shared" ref="A307:A315" si="20">EDATE(A306,1)</f>
         <v>42795</v>
@@ -10168,7 +10170,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <f t="shared" si="20"/>
         <v>42826</v>
@@ -10193,7 +10195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>124</v>
@@ -10215,7 +10217,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <f>EDATE(A308,1)</f>
         <v>42856</v>
@@ -10242,7 +10244,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <f t="shared" si="20"/>
         <v>42887</v>
@@ -10263,7 +10265,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <f t="shared" si="20"/>
         <v>42917</v>
@@ -10284,7 +10286,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <f t="shared" si="20"/>
         <v>42948</v>
@@ -10309,7 +10311,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <f t="shared" si="20"/>
         <v>42979</v>
@@ -10330,7 +10332,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <f t="shared" si="20"/>
         <v>43009</v>
@@ -10351,7 +10353,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <f>EDATE(A315,1)</f>
         <v>43040</v>
@@ -10378,7 +10380,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>74</v>
@@ -10397,7 +10399,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <f>EDATE(A316,1)</f>
         <v>43070</v>
@@ -10424,7 +10426,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="47" t="s">
         <v>164</v>
       </c>
@@ -10442,7 +10444,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43101</v>
       </c>
@@ -10466,7 +10468,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <f>EDATE(A320,1)</f>
         <v>43132</v>
@@ -10487,7 +10489,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <f t="shared" ref="A322:A335" si="21">EDATE(A321,1)</f>
         <v>43160</v>
@@ -10508,7 +10510,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <f t="shared" si="21"/>
         <v>43191</v>
@@ -10533,7 +10535,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>166</v>
@@ -10552,7 +10554,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>49</v>
@@ -10571,7 +10573,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>49</v>
@@ -10590,7 +10592,7 @@
         <v>45748</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <f>EDATE(A323,1)</f>
         <v>43221</v>
@@ -10611,7 +10613,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <f t="shared" si="21"/>
         <v>43252</v>
@@ -10632,7 +10634,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <f t="shared" si="21"/>
         <v>43282</v>
@@ -10659,7 +10661,7 @@
         <v>41456</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>49</v>
@@ -10681,7 +10683,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <f>EDATE(A329,1)</f>
         <v>43313</v>
@@ -10702,7 +10704,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <f t="shared" si="21"/>
         <v>43344</v>
@@ -10723,7 +10725,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <f>EDATE(A332,1)</f>
         <v>43374</v>
@@ -10744,7 +10746,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <f t="shared" si="21"/>
         <v>43405</v>
@@ -10765,7 +10767,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <f t="shared" si="21"/>
         <v>43435</v>
@@ -10792,7 +10794,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>57</v>
@@ -10812,7 +10814,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>49</v>
@@ -10834,7 +10836,7 @@
         <v>45267</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
         <v>57</v>
@@ -10856,7 +10858,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>45</v>
@@ -10878,7 +10880,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>168</v>
@@ -10898,7 +10900,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="47" t="s">
         <v>171</v>
       </c>
@@ -10916,7 +10918,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43466</v>
       </c>
@@ -10936,7 +10938,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <f>EDATE(A342,1)</f>
         <v>43497</v>
@@ -10957,7 +10959,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <f t="shared" ref="A344:A364" si="22">EDATE(A343,1)</f>
         <v>43525</v>
@@ -10984,7 +10986,7 @@
         <v>44256</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
         <v>48</v>
@@ -11001,7 +11003,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
         <v>60</v>
@@ -11020,7 +11022,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <f>EDATE(A344,1)</f>
         <v>43556</v>
@@ -11045,7 +11047,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <f t="shared" si="22"/>
         <v>43586</v>
@@ -11072,7 +11074,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>49</v>
@@ -11091,7 +11093,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
         <v>47</v>
@@ -11110,7 +11112,7 @@
         <v>45069</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <f>EDATE(A348,1)</f>
         <v>43617</v>
@@ -11137,7 +11139,7 @@
         <v>45081</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>49</v>
@@ -11156,7 +11158,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>57</v>
@@ -11175,7 +11177,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <f>EDATE(A351,1)</f>
         <v>43647</v>
@@ -11202,7 +11204,7 @@
         <v>45140</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>176</v>
@@ -11221,7 +11223,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <f>EDATE(A354,1)</f>
         <v>43678</v>
@@ -11248,7 +11250,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <f t="shared" si="22"/>
         <v>43709</v>
@@ -11275,7 +11277,7 @@
         <v>45172</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>49</v>
@@ -11294,7 +11296,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>50</v>
@@ -11313,7 +11315,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>57</v>
@@ -11332,7 +11334,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>49</v>
@@ -11351,7 +11353,7 @@
         <v>45238</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <f>EDATE(A357,1)</f>
         <v>43739</v>
@@ -11372,7 +11374,7 @@
       <c r="J362" s="12"/>
       <c r="K362" s="15"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <f t="shared" si="22"/>
         <v>43770</v>
@@ -11393,7 +11395,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <f t="shared" si="22"/>
         <v>43800</v>
@@ -11414,7 +11416,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="47" t="s">
         <v>180</v>
       </c>
@@ -11432,7 +11434,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>43831</v>
       </c>
@@ -11456,7 +11458,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <f>EDATE(A366,1)</f>
         <v>43862</v>
@@ -11477,7 +11479,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <f t="shared" ref="A368:A381" si="23">EDATE(A367,1)</f>
         <v>43891</v>
@@ -11498,7 +11500,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <f t="shared" si="23"/>
         <v>43922</v>
@@ -11523,7 +11525,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <f t="shared" si="23"/>
         <v>43952</v>
@@ -11544,7 +11546,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <f t="shared" si="23"/>
         <v>43983</v>
@@ -11569,7 +11571,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
         <v>57</v>
@@ -11591,7 +11593,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <f>EDATE(A371,1)</f>
         <v>44013</v>
@@ -11612,7 +11614,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <f t="shared" si="23"/>
         <v>44044</v>
@@ -11633,7 +11635,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <f>EDATE(A374,1)</f>
         <v>44075</v>
@@ -11660,7 +11662,7 @@
         <v>45180</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>49</v>
@@ -11679,7 +11681,7 @@
         <v>45187</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>119</v>
@@ -11698,7 +11700,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>66</v>
@@ -11720,7 +11722,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <f>EDATE(A375,1)</f>
         <v>44105</v>
@@ -11741,7 +11743,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <f t="shared" si="23"/>
         <v>44136</v>
@@ -11762,7 +11764,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <f t="shared" si="23"/>
         <v>44166</v>
@@ -11783,7 +11785,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="47" t="s">
         <v>187</v>
       </c>
@@ -11801,7 +11803,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44197</v>
       </c>
@@ -11825,7 +11827,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <f>EDATE(A383,1)</f>
         <v>44228</v>
@@ -11846,7 +11848,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <f t="shared" ref="A385:A393" si="24">EDATE(A384,1)</f>
         <v>44256</v>
@@ -11867,7 +11869,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <f t="shared" si="24"/>
         <v>44287</v>
@@ -11888,7 +11890,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <f t="shared" si="24"/>
         <v>44317</v>
@@ -11909,7 +11911,7 @@
       <c r="J387" s="12"/>
       <c r="K387" s="15"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <f t="shared" si="24"/>
         <v>44348</v>
@@ -11934,7 +11936,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <f t="shared" si="24"/>
         <v>44378</v>
@@ -11955,7 +11957,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <f t="shared" si="24"/>
         <v>44409</v>
@@ -11976,7 +11978,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <f t="shared" si="24"/>
         <v>44440</v>
@@ -12003,7 +12005,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <f>EDATE(A391,1)</f>
         <v>44470</v>
@@ -12024,7 +12026,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <f t="shared" si="24"/>
         <v>44501</v>
@@ -12051,7 +12053,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>66</v>
@@ -12073,7 +12075,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <f>EDATE(A393,1)</f>
         <v>44531</v>
@@ -12098,7 +12100,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
         <v>193</v>
       </c>
@@ -12116,7 +12118,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>44562</v>
       </c>
@@ -12136,7 +12138,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <f>EDATE(A397,1)</f>
         <v>44593</v>
@@ -12157,7 +12159,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <f t="shared" ref="A399:A403" si="25">EDATE(A398,1)</f>
         <v>44621</v>
@@ -12178,7 +12180,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <f t="shared" si="25"/>
         <v>44652</v>
@@ -12203,7 +12205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <f t="shared" si="25"/>
         <v>44682</v>
@@ -12224,7 +12226,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <f t="shared" si="25"/>
         <v>44713</v>
@@ -12245,7 +12247,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <f t="shared" si="25"/>
         <v>44743</v>
@@ -12272,7 +12274,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>49</v>
@@ -12289,7 +12291,7 @@
         <v>44378</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>50</v>
@@ -12306,7 +12308,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="15" t="s">
         <v>60</v>
@@ -12323,7 +12325,7 @@
       <c r="J406" s="12"/>
       <c r="K406" s="15"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>47</v>
@@ -12342,7 +12344,7 @@
         <v>45146</v>
       </c>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
         <v>47</v>
@@ -12361,7 +12363,7 @@
         <v>45181</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="52">
         <v>44774</v>
       </c>
@@ -12381,7 +12383,7 @@
       <c r="J409" s="12"/>
       <c r="K409" s="15"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>44805</v>
       </c>
@@ -12405,7 +12407,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>44835</v>
       </c>
@@ -12425,7 +12427,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="52">
         <v>44866</v>
       </c>
@@ -12451,7 +12453,7 @@
         <v>44862</v>
       </c>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="52"/>
       <c r="B413" s="15" t="s">
         <v>201</v>
@@ -12473,7 +12475,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>44896</v>
       </c>
@@ -12499,7 +12501,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>200</v>
@@ -12521,7 +12523,7 @@
         <v>44924</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
         <v>198</v>
       </c>
@@ -12539,7 +12541,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44927</v>
       </c>
@@ -12563,7 +12565,7 @@
         <v>44585</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>44958</v>
       </c>
@@ -12583,7 +12585,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44986</v>
       </c>
@@ -12609,7 +12611,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>205</v>
@@ -12629,11 +12631,13 @@
         <v>206</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>45017</v>
       </c>
-      <c r="B421" s="20"/>
+      <c r="B421" s="20" t="s">
+        <v>199</v>
+      </c>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
       <c r="E421" s="9"/>
@@ -12645,9 +12649,11 @@
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
-      <c r="K421" s="20"/>
-    </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K421" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>45047</v>
       </c>
@@ -12665,7 +12671,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>45078</v>
       </c>
@@ -12683,7 +12689,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>45108</v>
       </c>
@@ -12701,7 +12707,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>45139</v>
       </c>
@@ -12719,7 +12725,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>45170</v>
       </c>
@@ -12737,7 +12743,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>45200</v>
       </c>
@@ -12755,7 +12761,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>45231</v>
       </c>
@@ -12773,7 +12779,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>45261</v>
       </c>
@@ -12791,7 +12797,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>45292</v>
       </c>
@@ -12809,7 +12815,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>45323</v>
       </c>
@@ -12827,7 +12833,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>45352</v>
       </c>
@@ -12845,7 +12851,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>45383</v>
       </c>
@@ -12863,7 +12869,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>45413</v>
       </c>
@@ -12881,7 +12887,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12897,7 +12903,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12913,7 +12919,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40"/>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
@@ -12929,7 +12935,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="52"/>
       <c r="B438" s="15"/>
       <c r="C438" s="41"/>
@@ -12960,10 +12966,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12986,7 +12992,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -12994,21 +13000,21 @@
       <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="67" t="s">
         <v>33</v>
       </c>
@@ -13021,7 +13027,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13050,7 +13056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -13076,17 +13082,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13107,7 +13113,7 @@
       <c r="K6" s="68"/>
       <c r="L6" s="68"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13134,7 +13140,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13160,7 +13166,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13186,7 +13192,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13212,7 +13218,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13238,7 +13244,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13264,7 +13270,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13290,7 +13296,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13316,7 +13322,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13336,7 +13342,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13356,7 +13362,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13376,7 +13382,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13397,7 +13403,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13418,7 +13424,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13439,7 +13445,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13460,7 +13466,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13481,7 +13487,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13502,7 +13508,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13523,7 +13529,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13544,7 +13550,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13565,7 +13571,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13586,7 +13592,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13607,7 +13613,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13628,7 +13634,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13649,7 +13655,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13670,7 +13676,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13691,7 +13697,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13712,7 +13718,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13733,7 +13739,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13754,7 +13760,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13775,7 +13781,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -13796,7 +13802,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -13805,7 +13811,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -13814,7 +13820,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -13823,7 +13829,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -13832,7 +13838,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -13841,7 +13847,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -13850,7 +13856,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -13859,7 +13865,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -13868,7 +13874,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -13877,7 +13883,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -13886,7 +13892,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -13895,7 +13901,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -13904,7 +13910,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -13913,7 +13919,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -13922,7 +13928,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -13931,7 +13937,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -13940,7 +13946,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -13949,7 +13955,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -13958,7 +13964,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -13967,7 +13973,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -13976,7 +13982,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -13985,7 +13991,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -13994,7 +14000,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14003,7 +14009,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14012,7 +14018,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14021,7 +14027,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14030,7 +14036,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14039,7 +14045,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14048,7 +14054,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14057,7 +14063,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="208">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1551,7 +1551,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1594,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1658,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1718,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1784,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1847,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1945,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2004,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2069,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2112,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2187,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2373,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2439,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2497,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2563,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2619,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2694,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2737,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2803,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2859,7 +2859,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2957,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3020,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3086,7 +3086,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K438" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K439" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3464,12 +3464,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K438"/>
+  <dimension ref="A2:K439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1890" topLeftCell="A413" activePane="bottomLeft"/>
-      <selection activeCell="C9" sqref="C9"/>
-      <selection pane="bottomLeft" activeCell="B422" sqref="B422"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A413" activePane="bottomLeft"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection pane="bottomLeft" activeCell="B423" sqref="B423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3636,7 +3636,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>213.41700000000003</v>
+        <v>212.41700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12654,10 +12654,10 @@
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B422" s="20"/>
+      <c r="A422" s="40"/>
+      <c r="B422" s="20" t="s">
+        <v>200</v>
+      </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
       <c r="E422" s="9"/>
@@ -12666,14 +12666,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H422" s="39"/>
+      <c r="H422" s="39">
+        <v>1</v>
+      </c>
       <c r="I422" s="9"/>
       <c r="J422" s="11"/>
-      <c r="K422" s="20"/>
+      <c r="K422" s="51">
+        <v>45030</v>
+      </c>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13"/>
@@ -12691,7 +12695,7 @@
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13"/>
@@ -12709,7 +12713,7 @@
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -12727,7 +12731,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -12745,7 +12749,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -12763,7 +12767,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -12781,7 +12785,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -12799,7 +12803,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12817,7 +12821,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12835,7 +12839,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12853,7 +12857,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12871,7 +12875,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12888,7 +12892,9 @@
       <c r="K434" s="20"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A435" s="40"/>
+      <c r="A435" s="40">
+        <v>45413</v>
+      </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
       <c r="D435" s="39"/>
@@ -12936,20 +12942,36 @@
       <c r="K437" s="20"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A438" s="52"/>
-      <c r="B438" s="15"/>
-      <c r="C438" s="41"/>
-      <c r="D438" s="42"/>
-      <c r="E438" s="53"/>
-      <c r="F438" s="15"/>
-      <c r="G438" s="41" t="str">
+      <c r="A438" s="40"/>
+      <c r="B438" s="20"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="39"/>
+      <c r="E438" s="9"/>
+      <c r="F438" s="20"/>
+      <c r="G438" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H438" s="42"/>
-      <c r="I438" s="53"/>
-      <c r="J438" s="12"/>
-      <c r="K438" s="15"/>
+      <c r="H438" s="39"/>
+      <c r="I438" s="9"/>
+      <c r="J438" s="11"/>
+      <c r="K438" s="20"/>
+    </row>
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A439" s="52"/>
+      <c r="B439" s="15"/>
+      <c r="C439" s="41"/>
+      <c r="D439" s="42"/>
+      <c r="E439" s="53"/>
+      <c r="F439" s="15"/>
+      <c r="G439" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H439" s="42"/>
+      <c r="I439" s="53"/>
+      <c r="J439" s="12"/>
+      <c r="K439" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="210">
   <si>
     <t>PERIOD</t>
   </si>
@@ -658,6 +658,12 @@
   </si>
   <si>
     <t>BDAY 4/24/23</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1557,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1594,7 +1600,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1658,7 +1664,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1718,7 +1724,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1784,7 +1790,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1847,7 +1853,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1945,7 +1951,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2004,7 +2010,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2069,7 +2075,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2112,7 +2118,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2187,7 +2193,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2373,7 +2379,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2439,7 +2445,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2497,7 +2503,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2563,7 +2569,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2619,7 +2625,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2694,7 +2700,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2737,7 +2743,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2803,7 +2809,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2859,7 +2865,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2957,7 +2963,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3020,7 +3026,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,7 +3475,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A413" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="B423" sqref="B423"/>
+      <selection pane="bottomLeft" activeCell="K424" sqref="K424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,7 +3632,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>213.23100000000005</v>
+        <v>214.48100000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3636,7 +3642,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>212.41700000000003</v>
+        <v>211.66700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12638,13 +12644,15 @@
       <c r="B421" s="20" t="s">
         <v>199</v>
       </c>
-      <c r="C421" s="13"/>
+      <c r="C421" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D421" s="39"/>
       <c r="E421" s="9"/>
       <c r="F421" s="20"/>
-      <c r="G421" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G421" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H421" s="39"/>
       <c r="I421" s="9"/>
@@ -12679,7 +12687,9 @@
       <c r="A423" s="40">
         <v>45047</v>
       </c>
-      <c r="B423" s="20"/>
+      <c r="B423" s="20" t="s">
+        <v>208</v>
+      </c>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
       <c r="E423" s="9"/>
@@ -12688,10 +12698,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H423" s="39"/>
+      <c r="H423" s="39">
+        <v>2</v>
+      </c>
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
-      <c r="K423" s="20"/>
+      <c r="K423" s="20" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="211">
   <si>
     <t>PERIOD</t>
   </si>
@@ -664,6 +664,9 @@
   </si>
   <si>
     <t>4/27,28/2023</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1560,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1600,7 +1603,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1664,7 +1667,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1724,7 +1727,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1790,7 +1793,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1853,7 +1856,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1951,7 +1954,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2010,7 +2013,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2075,7 +2078,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2118,7 +2121,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2196,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2379,7 +2382,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2445,7 +2448,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2503,7 +2506,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2569,7 +2572,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2625,7 +2628,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2700,7 +2703,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2743,7 +2746,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2809,7 +2812,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2868,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2963,7 +2966,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3026,7 +3029,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3092,7 +3095,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K439" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K440" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3470,12 +3473,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K439"/>
+  <dimension ref="A2:K440"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A413" activePane="bottomLeft"/>
       <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="K424" sqref="K424"/>
+      <selection pane="bottomLeft" activeCell="B425" sqref="B425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12708,10 +12711,10 @@
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A424" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B424" s="20"/>
+      <c r="A424" s="40"/>
+      <c r="B424" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
       <c r="E424" s="9"/>
@@ -12723,11 +12726,13 @@
       <c r="H424" s="39"/>
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
-      <c r="K424" s="20"/>
+      <c r="K424" s="20" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B425" s="20"/>
       <c r="C425" s="13"/>
@@ -12745,7 +12750,7 @@
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -12763,7 +12768,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -12781,7 +12786,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -12799,7 +12804,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -12817,7 +12822,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12835,7 +12840,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12853,7 +12858,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12871,7 +12876,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12889,7 +12894,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12907,7 +12912,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12924,7 +12929,9 @@
       <c r="K435" s="20"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A436" s="40"/>
+      <c r="A436" s="40">
+        <v>45413</v>
+      </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
       <c r="D436" s="39"/>
@@ -12972,20 +12979,36 @@
       <c r="K438" s="20"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A439" s="52"/>
-      <c r="B439" s="15"/>
-      <c r="C439" s="41"/>
-      <c r="D439" s="42"/>
-      <c r="E439" s="53"/>
-      <c r="F439" s="15"/>
-      <c r="G439" s="41" t="str">
+      <c r="A439" s="40"/>
+      <c r="B439" s="20"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="39"/>
+      <c r="E439" s="9"/>
+      <c r="F439" s="20"/>
+      <c r="G439" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H439" s="42"/>
-      <c r="I439" s="53"/>
-      <c r="J439" s="12"/>
-      <c r="K439" s="15"/>
+      <c r="H439" s="39"/>
+      <c r="I439" s="9"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="20"/>
+    </row>
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A440" s="52"/>
+      <c r="B440" s="15"/>
+      <c r="C440" s="41"/>
+      <c r="D440" s="42"/>
+      <c r="E440" s="53"/>
+      <c r="F440" s="15"/>
+      <c r="G440" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H440" s="42"/>
+      <c r="I440" s="53"/>
+      <c r="J440" s="12"/>
+      <c r="K440" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="214">
   <si>
     <t>PERIOD</t>
   </si>
@@ -162,9 +162,6 @@
     <t>SL EARNED</t>
   </si>
   <si>
-    <t>CORTEZ, FIDELA</t>
-  </si>
-  <si>
     <t>1996</t>
   </si>
   <si>
@@ -667,6 +664,18 @@
   </si>
   <si>
     <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>5/29-6/2/2023</t>
+  </si>
+  <si>
+    <t>CORTEZ, FIDELA B.</t>
+  </si>
+  <si>
+    <t>TICC</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1569,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1603,7 +1612,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1667,7 +1676,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1727,7 +1736,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1793,7 +1802,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1856,7 +1865,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1954,7 +1963,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2013,7 +2022,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2078,7 +2087,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2130,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2205,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2382,7 +2391,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2457,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2506,7 +2515,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2572,7 +2581,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2628,7 +2637,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2712,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2746,7 +2755,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2812,7 +2821,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2868,7 +2877,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2966,7 +2975,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3029,7 +3038,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,7 +3104,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K440" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K441" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3473,12 +3482,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K440"/>
+  <dimension ref="A2:K441"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A413" activePane="bottomLeft"/>
-      <selection activeCell="C7" sqref="C7:F7"/>
-      <selection pane="bottomLeft" activeCell="B425" sqref="B425"/>
+      <selection activeCell="F4" sqref="F4:G4"/>
+      <selection pane="bottomLeft" activeCell="D426" sqref="D426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3501,7 +3510,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="58" t="s">
-        <v>42</v>
+        <v>212</v>
       </c>
       <c r="C2" s="58"/>
       <c r="D2" s="21" t="s">
@@ -3544,7 +3553,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="63"/>
+      <c r="F4" s="63" t="s">
+        <v>213</v>
+      </c>
       <c r="G4" s="63"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3635,7 +3646,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>214.48100000000005</v>
+        <v>209.48100000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3652,7 +3663,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -3814,7 +3825,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -3856,7 +3867,7 @@
         <v>35462</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -3874,7 +3885,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="11"/>
       <c r="K20" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3883,7 +3894,7 @@
         <v>35490</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -3907,7 +3918,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
@@ -4014,7 +4025,7 @@
         <v>35643</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="13">
         <v>1.25</v>
@@ -4041,7 +4052,7 @@
         <v>35674</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -4089,7 +4100,7 @@
         <v>35735</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -4107,7 +4118,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
       <c r="K30" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -4116,7 +4127,7 @@
         <v>35765</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
@@ -4138,7 +4149,7 @@
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="39">
@@ -4157,7 +4168,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="47" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4199,7 +4210,7 @@
         <v>35827</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -4217,7 +4228,7 @@
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4226,7 +4237,7 @@
         <v>35855</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="13">
         <v>1.25</v>
@@ -4244,7 +4255,7 @@
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
       <c r="K36" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -4316,7 +4327,7 @@
         <v>35977</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -4334,7 +4345,7 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
@@ -4427,7 +4438,7 @@
         <v>36130</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C45" s="13">
         <v>1.25</v>
@@ -4445,13 +4456,13 @@
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
       <c r="K45" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39">
@@ -4467,12 +4478,12 @@
       <c r="I46" s="9"/>
       <c r="J46" s="11"/>
       <c r="K46" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4640,7 +4651,7 @@
         <v>36373</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="13">
         <v>1.25</v>
@@ -4658,7 +4669,7 @@
       <c r="I55" s="9"/>
       <c r="J55" s="11"/>
       <c r="K55" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -4709,7 +4720,7 @@
         <v>36465</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="13">
         <v>1.25</v>
@@ -4727,7 +4738,7 @@
       <c r="I58" s="9"/>
       <c r="J58" s="11"/>
       <c r="K58" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -4753,7 +4764,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B60" s="50" t="s">
         <v>32</v>
@@ -4839,7 +4850,7 @@
         <v>36617</v>
       </c>
       <c r="B64" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C64" s="13">
         <v>1.25</v>
@@ -4857,7 +4868,7 @@
       <c r="I64" s="9"/>
       <c r="J64" s="11"/>
       <c r="K64" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
@@ -4929,7 +4940,7 @@
         <v>36739</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C68" s="13">
         <v>1.25</v>
@@ -4947,7 +4958,7 @@
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
       <c r="K68" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
@@ -5019,7 +5030,7 @@
         <v>36861</v>
       </c>
       <c r="B72" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C72" s="13">
         <v>1.25</v>
@@ -5056,7 +5067,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -5077,7 +5088,7 @@
         <v>36892</v>
       </c>
       <c r="B75" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C75" s="13">
         <v>1.25</v>
@@ -5093,7 +5104,7 @@
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
       <c r="K75" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
@@ -5102,7 +5113,7 @@
         <v>36923</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C76" s="13">
         <v>1.25</v>
@@ -5255,7 +5266,7 @@
         <v>37135</v>
       </c>
       <c r="B83" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C83" s="13">
         <v>1.25</v>
@@ -5322,7 +5333,7 @@
         <v>37226</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C86" s="13">
         <v>1.25</v>
@@ -5343,7 +5354,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -5553,7 +5564,7 @@
         <v>37530</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C97" s="13">
         <v>1.25</v>
@@ -5571,7 +5582,7 @@
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
       <c r="K97" s="51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -5601,7 +5612,7 @@
         <v>37591</v>
       </c>
       <c r="B99" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C99" s="13">
         <v>1.25</v>
@@ -5622,7 +5633,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -5685,7 +5696,7 @@
         <v>37681</v>
       </c>
       <c r="B103" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C103" s="13">
         <v>1.25</v>
@@ -5710,7 +5721,7 @@
         <v>37712</v>
       </c>
       <c r="B104" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C104" s="13">
         <v>1.25</v>
@@ -5882,7 +5893,7 @@
         <v>37956</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C112" s="13">
         <v>1.25</v>
@@ -5900,13 +5911,13 @@
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
       <c r="K112" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="39">
@@ -5925,7 +5936,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -6051,7 +6062,7 @@
         <v>38139</v>
       </c>
       <c r="B120" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C120" s="13">
         <v>1.25</v>
@@ -6069,13 +6080,13 @@
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
       <c r="K120" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="39">
@@ -6098,7 +6109,7 @@
         <v>38169</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C122" s="13">
         <v>1.25</v>
@@ -6123,7 +6134,7 @@
         <v>38200</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C123" s="13">
         <v>1.25</v>
@@ -6169,7 +6180,7 @@
         <v>38261</v>
       </c>
       <c r="B125" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C125" s="13">
         <v>1.25</v>
@@ -6232,7 +6243,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -6253,7 +6264,7 @@
         <v>38353</v>
       </c>
       <c r="B129" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C129" s="13">
         <v>1.25</v>
@@ -6271,7 +6282,7 @@
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
       <c r="K129" s="51" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
@@ -6427,7 +6438,7 @@
         <v>38596</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C137" s="13">
         <v>1.25</v>
@@ -6443,7 +6454,7 @@
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
       <c r="K137" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
@@ -6452,7 +6463,7 @@
         <v>38626</v>
       </c>
       <c r="B138" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C138" s="13">
         <v>1.25</v>
@@ -6470,7 +6481,7 @@
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
       <c r="K138" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
@@ -6517,7 +6528,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -6685,7 +6696,7 @@
         <v>38930</v>
       </c>
       <c r="B149" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C149" s="13">
         <v>1.25</v>
@@ -6703,13 +6714,13 @@
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
       <c r="K149" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
@@ -6723,7 +6734,7 @@
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
       <c r="K150" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
@@ -6732,7 +6743,7 @@
         <v>38961</v>
       </c>
       <c r="B151" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C151" s="13">
         <v>1.25</v>
@@ -6778,7 +6789,7 @@
         <v>39022</v>
       </c>
       <c r="B153" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C153" s="13">
         <v>1.25</v>
@@ -6796,7 +6807,7 @@
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
       <c r="K153" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
@@ -6822,7 +6833,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -6843,7 +6854,7 @@
         <v>39083</v>
       </c>
       <c r="B156" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C156" s="13">
         <v>1.25</v>
@@ -6868,7 +6879,7 @@
         <v>39114</v>
       </c>
       <c r="B157" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C157" s="13">
         <v>1.25</v>
@@ -6893,7 +6904,7 @@
         <v>39142</v>
       </c>
       <c r="B158" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C158" s="13">
         <v>1.25</v>
@@ -6909,13 +6920,13 @@
       <c r="I158" s="9"/>
       <c r="J158" s="11"/>
       <c r="K158" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C159" s="13"/>
       <c r="D159" s="39"/>
@@ -6929,7 +6940,7 @@
       <c r="I159" s="9"/>
       <c r="J159" s="11"/>
       <c r="K159" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
@@ -6980,7 +6991,7 @@
         <v>39234</v>
       </c>
       <c r="B162" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C162" s="13">
         <v>1.25</v>
@@ -6998,13 +7009,13 @@
       <c r="I162" s="9"/>
       <c r="J162" s="11"/>
       <c r="K162" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C163" s="13"/>
       <c r="D163" s="39"/>
@@ -7017,13 +7028,13 @@
       <c r="I163" s="9"/>
       <c r="J163" s="11"/>
       <c r="K163" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="39">
@@ -7064,7 +7075,7 @@
         <v>39295</v>
       </c>
       <c r="B166" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C166" s="13">
         <v>1.25</v>
@@ -7110,7 +7121,7 @@
         <v>39356</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C168" s="13">
         <v>1.25</v>
@@ -7128,13 +7139,13 @@
       <c r="I168" s="9"/>
       <c r="J168" s="11"/>
       <c r="K168" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C169" s="13"/>
       <c r="D169" s="39"/>
@@ -7147,13 +7158,13 @@
       <c r="I169" s="9"/>
       <c r="J169" s="11"/>
       <c r="K169" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C170" s="13"/>
       <c r="D170" s="39">
@@ -7166,7 +7177,7 @@
       <c r="I170" s="9"/>
       <c r="J170" s="11"/>
       <c r="K170" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
@@ -7175,7 +7186,7 @@
         <v>39387</v>
       </c>
       <c r="B171" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C171" s="13">
         <v>1.25</v>
@@ -7193,7 +7204,7 @@
       <c r="I171" s="9"/>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
@@ -7202,7 +7213,7 @@
         <v>39417</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C172" s="13">
         <v>1.25</v>
@@ -7220,12 +7231,12 @@
       <c r="I172" s="9"/>
       <c r="J172" s="11"/>
       <c r="K172" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -7288,7 +7299,7 @@
         <v>39508</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C176" s="13">
         <v>1.25</v>
@@ -7304,7 +7315,7 @@
       <c r="I176" s="9"/>
       <c r="J176" s="11"/>
       <c r="K176" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
@@ -7313,7 +7324,7 @@
         <v>39539</v>
       </c>
       <c r="B177" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C177" s="13">
         <v>1.25</v>
@@ -7329,7 +7340,7 @@
       <c r="I177" s="9"/>
       <c r="J177" s="11"/>
       <c r="K177" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -7422,7 +7433,7 @@
         <v>39692</v>
       </c>
       <c r="B182" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C182" s="13">
         <v>1.25</v>
@@ -7438,13 +7449,13 @@
       <c r="I182" s="9"/>
       <c r="J182" s="11"/>
       <c r="K182" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C183" s="13"/>
       <c r="D183" s="39"/>
@@ -7457,7 +7468,7 @@
       <c r="I183" s="9"/>
       <c r="J183" s="11"/>
       <c r="K183" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
@@ -7466,7 +7477,7 @@
         <v>39722</v>
       </c>
       <c r="B184" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C184" s="13">
         <v>1.25</v>
@@ -7514,7 +7525,7 @@
         <v>39783</v>
       </c>
       <c r="B186" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C186" s="13">
         <v>1.25</v>
@@ -7535,7 +7546,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="47" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7619,7 +7630,7 @@
         <v>39904</v>
       </c>
       <c r="B191" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C191" s="13">
         <v>1.25</v>
@@ -7635,7 +7646,7 @@
       <c r="I191" s="9"/>
       <c r="J191" s="11"/>
       <c r="K191" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
@@ -7728,7 +7739,7 @@
         <v>40057</v>
       </c>
       <c r="B196" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C196" s="13">
         <v>1.25</v>
@@ -7752,7 +7763,7 @@
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="39">
@@ -7765,13 +7776,13 @@
       <c r="I197" s="9"/>
       <c r="J197" s="11"/>
       <c r="K197" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C198" s="13"/>
       <c r="D198" s="39">
@@ -7784,7 +7795,7 @@
       <c r="I198" s="9"/>
       <c r="J198" s="11"/>
       <c r="K198" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
@@ -7852,7 +7863,7 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -7873,7 +7884,7 @@
         <v>40179</v>
       </c>
       <c r="B203" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C203" s="13">
         <v>1.25</v>
@@ -7889,7 +7900,7 @@
       <c r="I203" s="9"/>
       <c r="J203" s="11"/>
       <c r="K203" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
@@ -7898,7 +7909,7 @@
         <v>40210</v>
       </c>
       <c r="B204" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C204" s="13">
         <v>1.25</v>
@@ -7916,13 +7927,13 @@
       <c r="I204" s="9"/>
       <c r="J204" s="11"/>
       <c r="K204" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C205" s="13"/>
       <c r="D205" s="39">
@@ -7945,7 +7956,7 @@
         <v>40238</v>
       </c>
       <c r="B206" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C206" s="13">
         <v>1.25</v>
@@ -7970,7 +7981,7 @@
         <v>40269</v>
       </c>
       <c r="B207" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C207" s="13">
         <v>1.25</v>
@@ -7993,7 +8004,7 @@
         <v>40299</v>
       </c>
       <c r="B208" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C208" s="13">
         <v>1.25</v>
@@ -8011,13 +8022,13 @@
       <c r="I208" s="9"/>
       <c r="J208" s="11"/>
       <c r="K208" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="39">
@@ -8040,7 +8051,7 @@
         <v>40330</v>
       </c>
       <c r="B210" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C210" s="13">
         <v>1.25</v>
@@ -8058,7 +8069,7 @@
       <c r="I210" s="9"/>
       <c r="J210" s="11"/>
       <c r="K210" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
@@ -8067,7 +8078,7 @@
         <v>40360</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C211" s="13">
         <v>1.25</v>
@@ -8195,7 +8206,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -8279,7 +8290,7 @@
         <v>40634</v>
       </c>
       <c r="B221" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C221" s="41">
         <v>1.25</v>
@@ -8297,7 +8308,7 @@
       <c r="I221" s="9"/>
       <c r="J221" s="11"/>
       <c r="K221" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
@@ -8348,7 +8359,7 @@
         <v>40725</v>
       </c>
       <c r="B224" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C224" s="41">
         <v>1.25</v>
@@ -8373,7 +8384,7 @@
         <v>40756</v>
       </c>
       <c r="B225" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C225" s="41">
         <v>1.25</v>
@@ -8419,7 +8430,7 @@
         <v>40817</v>
       </c>
       <c r="B227" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C227" s="41">
         <v>1.25</v>
@@ -8437,13 +8448,13 @@
       <c r="I227" s="9"/>
       <c r="J227" s="11"/>
       <c r="K227" s="51" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="39"/>
@@ -8456,13 +8467,13 @@
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
       <c r="K228" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C229" s="13"/>
       <c r="D229" s="39">
@@ -8520,7 +8531,7 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="47" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -8562,7 +8573,7 @@
         <v>40940</v>
       </c>
       <c r="B234" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C234" s="13">
         <v>1.25</v>
@@ -8578,7 +8589,7 @@
       <c r="I234" s="9"/>
       <c r="J234" s="11"/>
       <c r="K234" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
@@ -8587,7 +8598,7 @@
         <v>40969</v>
       </c>
       <c r="B235" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C235" s="13">
         <v>1.25</v>
@@ -8605,13 +8616,13 @@
       <c r="I235" s="9"/>
       <c r="J235" s="11"/>
       <c r="K235" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C236" s="13"/>
       <c r="D236" s="39"/>
@@ -8625,7 +8636,7 @@
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
       <c r="K236" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
@@ -8655,7 +8666,7 @@
         <v>41030</v>
       </c>
       <c r="B238" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C238" s="13">
         <v>1.25</v>
@@ -8677,7 +8688,7 @@
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39">
@@ -8760,7 +8771,7 @@
         <v>41153</v>
       </c>
       <c r="B243" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C243" s="13">
         <v>1.25</v>
@@ -8778,7 +8789,7 @@
       <c r="I243" s="9"/>
       <c r="J243" s="11"/>
       <c r="K243" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -8846,7 +8857,7 @@
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="47" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B247" s="20"/>
       <c r="C247" s="13"/>
@@ -8888,7 +8899,7 @@
         <v>41306</v>
       </c>
       <c r="B249" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C249" s="13">
         <v>1.25</v>
@@ -8904,7 +8915,7 @@
       <c r="I249" s="9"/>
       <c r="J249" s="11"/>
       <c r="K249" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
@@ -8934,7 +8945,7 @@
         <v>41365</v>
       </c>
       <c r="B251" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C251" s="13">
         <v>1.25</v>
@@ -8950,7 +8961,7 @@
       <c r="I251" s="9"/>
       <c r="J251" s="11"/>
       <c r="K251" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
@@ -9043,7 +9054,7 @@
         <v>41518</v>
       </c>
       <c r="B256" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C256" s="13">
         <v>1.25</v>
@@ -9059,13 +9070,13 @@
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
       <c r="K256" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C257" s="13"/>
       <c r="D257" s="39"/>
@@ -9084,7 +9095,7 @@
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C258" s="13"/>
       <c r="D258" s="39"/>
@@ -9097,7 +9108,7 @@
       <c r="I258" s="9"/>
       <c r="J258" s="11"/>
       <c r="K258" s="48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
@@ -9127,7 +9138,7 @@
         <v>41579</v>
       </c>
       <c r="B260" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C260" s="13">
         <v>1.25</v>
@@ -9145,7 +9156,7 @@
       <c r="I260" s="9"/>
       <c r="J260" s="11"/>
       <c r="K260" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
@@ -9171,7 +9182,7 @@
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B262" s="20"/>
       <c r="C262" s="13"/>
@@ -9192,7 +9203,7 @@
         <v>41640</v>
       </c>
       <c r="B263" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C263" s="13">
         <v>1.25</v>
@@ -9238,7 +9249,7 @@
         <v>41699</v>
       </c>
       <c r="B265" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C265" s="13">
         <v>1.25</v>
@@ -9265,7 +9276,7 @@
         <v>41730</v>
       </c>
       <c r="B266" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C266" s="13">
         <v>1.25</v>
@@ -9281,7 +9292,7 @@
       <c r="I266" s="9"/>
       <c r="J266" s="11"/>
       <c r="K266" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -9353,7 +9364,7 @@
         <v>41852</v>
       </c>
       <c r="B270" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C270" s="13">
         <v>1.25</v>
@@ -9371,13 +9382,13 @@
       <c r="I270" s="9"/>
       <c r="J270" s="11"/>
       <c r="K270" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C271" s="13"/>
       <c r="D271" s="39"/>
@@ -9388,7 +9399,7 @@
       <c r="I271" s="9"/>
       <c r="J271" s="11"/>
       <c r="K271" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -9418,7 +9429,7 @@
         <v>41913</v>
       </c>
       <c r="B273" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C273" s="13">
         <v>1.25</v>
@@ -9441,7 +9452,7 @@
         <v>41944</v>
       </c>
       <c r="B274" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C274" s="13">
         <v>1.25</v>
@@ -9459,7 +9470,7 @@
       <c r="I274" s="9"/>
       <c r="J274" s="11"/>
       <c r="K274" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
@@ -9485,7 +9496,7 @@
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B276" s="20"/>
       <c r="C276" s="13"/>
@@ -9548,7 +9559,7 @@
         <v>42064</v>
       </c>
       <c r="B279" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C279" s="13">
         <v>1.25</v>
@@ -9564,13 +9575,13 @@
       <c r="I279" s="9"/>
       <c r="J279" s="11"/>
       <c r="K279" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C280" s="13"/>
       <c r="D280" s="39"/>
@@ -9584,7 +9595,7 @@
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
       <c r="K280" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
@@ -9635,7 +9646,7 @@
         <v>42156</v>
       </c>
       <c r="B283" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C283" s="13">
         <v>1.25</v>
@@ -9653,7 +9664,7 @@
       <c r="I283" s="9"/>
       <c r="J283" s="11"/>
       <c r="K283" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -9683,7 +9694,7 @@
         <v>42217</v>
       </c>
       <c r="B285" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C285" s="13">
         <v>1.25</v>
@@ -9701,13 +9712,13 @@
       <c r="I285" s="9"/>
       <c r="J285" s="11"/>
       <c r="K285" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C286" s="13"/>
       <c r="D286" s="39"/>
@@ -9721,7 +9732,7 @@
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
       <c r="K286" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
@@ -9772,7 +9783,7 @@
         <v>42309</v>
       </c>
       <c r="B289" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C289" s="13">
         <v>1.25</v>
@@ -9790,7 +9801,7 @@
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
       <c r="K289" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
@@ -9816,7 +9827,7 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B291" s="20"/>
       <c r="C291" s="13"/>
@@ -9900,7 +9911,7 @@
         <v>42461</v>
       </c>
       <c r="B295" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C295" s="13">
         <v>1.25</v>
@@ -9916,7 +9927,7 @@
       <c r="I295" s="9"/>
       <c r="J295" s="11"/>
       <c r="K295" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -10051,7 +10062,7 @@
         <v>42675</v>
       </c>
       <c r="B302" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C302" s="13">
         <v>1.25</v>
@@ -10069,7 +10080,7 @@
       <c r="I302" s="9"/>
       <c r="J302" s="11"/>
       <c r="K302" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -10095,7 +10106,7 @@
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B304" s="20"/>
       <c r="C304" s="13"/>
@@ -10116,7 +10127,7 @@
         <v>42736</v>
       </c>
       <c r="B305" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C305" s="13">
         <v>1.25</v>
@@ -10185,7 +10196,7 @@
         <v>42826</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C308" s="13">
         <v>1.25</v>
@@ -10201,13 +10212,13 @@
       <c r="I308" s="9"/>
       <c r="J308" s="11"/>
       <c r="K308" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
@@ -10223,7 +10234,7 @@
       <c r="I309" s="9"/>
       <c r="J309" s="11"/>
       <c r="K309" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
@@ -10232,7 +10243,7 @@
         <v>42856</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C310" s="13">
         <v>1.25</v>
@@ -10250,7 +10261,7 @@
       <c r="I310" s="9"/>
       <c r="J310" s="11"/>
       <c r="K310" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
@@ -10301,7 +10312,7 @@
         <v>42948</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C313" s="13">
         <v>1.25</v>
@@ -10317,7 +10328,7 @@
       <c r="I313" s="9"/>
       <c r="J313" s="11"/>
       <c r="K313" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
@@ -10368,7 +10379,7 @@
         <v>43040</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C316" s="13">
         <v>1.25</v>
@@ -10386,13 +10397,13 @@
       <c r="I316" s="9"/>
       <c r="J316" s="11"/>
       <c r="K316" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C317" s="13"/>
       <c r="D317" s="39">
@@ -10405,7 +10416,7 @@
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
       <c r="K317" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
@@ -10414,7 +10425,7 @@
         <v>43070</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C318" s="13">
         <v>1.25</v>
@@ -10432,12 +10443,12 @@
       <c r="I318" s="9"/>
       <c r="J318" s="11"/>
       <c r="K318" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B319" s="20"/>
       <c r="C319" s="13"/>
@@ -10458,7 +10469,7 @@
         <v>43101</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C320" s="13">
         <v>1.25</v>
@@ -10474,7 +10485,7 @@
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
       <c r="K320" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
@@ -10525,7 +10536,7 @@
         <v>43191</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C323" s="13">
         <v>1.25</v>
@@ -10541,13 +10552,13 @@
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
       <c r="K323" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C324" s="13"/>
       <c r="D324" s="39">
@@ -10560,13 +10571,13 @@
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
       <c r="K324" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C325" s="13"/>
       <c r="D325" s="39"/>
@@ -10585,7 +10596,7 @@
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C326" s="13"/>
       <c r="D326" s="39"/>
@@ -10649,7 +10660,7 @@
         <v>43282</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C329" s="13">
         <v>1.25</v>
@@ -10673,7 +10684,7 @@
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C330" s="13"/>
       <c r="D330" s="39"/>
@@ -10782,7 +10793,7 @@
         <v>43435</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C335" s="13">
         <v>1.25</v>
@@ -10806,7 +10817,7 @@
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
@@ -10826,7 +10837,7 @@
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C337" s="13"/>
       <c r="D337" s="39"/>
@@ -10848,7 +10859,7 @@
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40"/>
       <c r="B338" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C338" s="13"/>
       <c r="D338" s="39"/>
@@ -10864,13 +10875,13 @@
       <c r="I338" s="9"/>
       <c r="J338" s="11"/>
       <c r="K338" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
@@ -10886,13 +10897,13 @@
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
       <c r="K339" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C340" s="13"/>
       <c r="D340" s="39">
@@ -10911,7 +10922,7 @@
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="47" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
@@ -10974,7 +10985,7 @@
         <v>43525</v>
       </c>
       <c r="B344" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C344" s="13">
         <v>1.25</v>
@@ -10998,7 +11009,7 @@
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40"/>
       <c r="B345" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
@@ -11009,13 +11020,13 @@
       <c r="I345" s="9"/>
       <c r="J345" s="11"/>
       <c r="K345" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40"/>
       <c r="B346" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C346" s="13"/>
       <c r="D346" s="39">
@@ -11028,7 +11039,7 @@
       <c r="I346" s="9"/>
       <c r="J346" s="11"/>
       <c r="K346" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
@@ -11037,7 +11048,7 @@
         <v>43556</v>
       </c>
       <c r="B347" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C347" s="13">
         <v>1.25</v>
@@ -11053,7 +11064,7 @@
       <c r="I347" s="9"/>
       <c r="J347" s="11"/>
       <c r="K347" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
@@ -11062,7 +11073,7 @@
         <v>43586</v>
       </c>
       <c r="B348" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C348" s="13">
         <v>1.25</v>
@@ -11080,13 +11091,13 @@
       <c r="I348" s="9"/>
       <c r="J348" s="11"/>
       <c r="K348" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C349" s="13"/>
       <c r="D349" s="39"/>
@@ -11105,7 +11116,7 @@
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40"/>
       <c r="B350" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C350" s="13"/>
       <c r="D350" s="39">
@@ -11127,7 +11138,7 @@
         <v>43617</v>
       </c>
       <c r="B351" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C351" s="13">
         <v>1.25</v>
@@ -11151,7 +11162,7 @@
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
@@ -11170,7 +11181,7 @@
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
@@ -11183,7 +11194,7 @@
       <c r="I353" s="9"/>
       <c r="J353" s="11"/>
       <c r="K353" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
@@ -11192,7 +11203,7 @@
         <v>43647</v>
       </c>
       <c r="B354" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C354" s="13">
         <v>1.25</v>
@@ -11216,7 +11227,7 @@
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C355" s="13"/>
       <c r="D355" s="39"/>
@@ -11229,7 +11240,7 @@
       <c r="I355" s="9"/>
       <c r="J355" s="11"/>
       <c r="K355" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -11238,7 +11249,7 @@
         <v>43678</v>
       </c>
       <c r="B356" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C356" s="13">
         <v>1.25</v>
@@ -11265,7 +11276,7 @@
         <v>43709</v>
       </c>
       <c r="B357" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C357" s="13">
         <v>1.25</v>
@@ -11289,7 +11300,7 @@
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C358" s="13"/>
       <c r="D358" s="39"/>
@@ -11308,7 +11319,7 @@
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
@@ -11321,13 +11332,13 @@
       <c r="I359" s="9"/>
       <c r="J359" s="11"/>
       <c r="K359" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C360" s="13"/>
       <c r="D360" s="39"/>
@@ -11340,13 +11351,13 @@
       <c r="I360" s="9"/>
       <c r="J360" s="11"/>
       <c r="K360" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C361" s="13"/>
       <c r="D361" s="39"/>
@@ -11427,7 +11438,7 @@
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B365" s="20"/>
       <c r="C365" s="13"/>
@@ -11448,7 +11459,7 @@
         <v>43831</v>
       </c>
       <c r="B366" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C366" s="13">
         <v>1.25</v>
@@ -11464,7 +11475,7 @@
       <c r="I366" s="9"/>
       <c r="J366" s="11"/>
       <c r="K366" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
@@ -11515,7 +11526,7 @@
         <v>43922</v>
       </c>
       <c r="B369" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C369" s="13">
         <v>1.25</v>
@@ -11531,7 +11542,7 @@
       <c r="I369" s="9"/>
       <c r="J369" s="11"/>
       <c r="K369" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
@@ -11561,7 +11572,7 @@
         <v>43983</v>
       </c>
       <c r="B371" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C371" s="13">
         <v>1.25</v>
@@ -11577,13 +11588,13 @@
       <c r="I371" s="9"/>
       <c r="J371" s="11"/>
       <c r="K371" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40"/>
       <c r="B372" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C372" s="13"/>
       <c r="D372" s="39"/>
@@ -11599,7 +11610,7 @@
       <c r="I372" s="9"/>
       <c r="J372" s="11"/>
       <c r="K372" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
@@ -11650,7 +11661,7 @@
         <v>44075</v>
       </c>
       <c r="B375" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C375" s="13">
         <v>1.25</v>
@@ -11674,7 +11685,7 @@
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
@@ -11693,7 +11704,7 @@
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39">
@@ -11706,13 +11717,13 @@
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
       <c r="K377" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39">
@@ -11728,7 +11739,7 @@
       <c r="I378" s="9"/>
       <c r="J378" s="11"/>
       <c r="K378" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
@@ -11796,7 +11807,7 @@
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B382" s="20"/>
       <c r="C382" s="13"/>
@@ -11817,7 +11828,7 @@
         <v>44197</v>
       </c>
       <c r="B383" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C383" s="13">
         <v>1.25</v>
@@ -11833,7 +11844,7 @@
       <c r="I383" s="9"/>
       <c r="J383" s="11"/>
       <c r="K383" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
@@ -11926,7 +11937,7 @@
         <v>44348</v>
       </c>
       <c r="B388" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C388" s="13">
         <v>1.25</v>
@@ -11942,7 +11953,7 @@
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
       <c r="K388" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
@@ -11993,7 +12004,7 @@
         <v>44440</v>
       </c>
       <c r="B391" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C391" s="13">
         <v>1.25</v>
@@ -12011,7 +12022,7 @@
       <c r="I391" s="9"/>
       <c r="J391" s="11"/>
       <c r="K391" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
@@ -12041,7 +12052,7 @@
         <v>44501</v>
       </c>
       <c r="B393" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C393" s="13">
         <v>1.25</v>
@@ -12059,13 +12070,13 @@
       <c r="I393" s="9"/>
       <c r="J393" s="11"/>
       <c r="K393" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C394" s="13"/>
       <c r="D394" s="39">
@@ -12081,7 +12092,7 @@
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
       <c r="K394" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
@@ -12090,7 +12101,7 @@
         <v>44531</v>
       </c>
       <c r="B395" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C395" s="13">
         <v>1.25</v>
@@ -12111,7 +12122,7 @@
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B396" s="20"/>
       <c r="C396" s="13"/>
@@ -12195,7 +12206,7 @@
         <v>44652</v>
       </c>
       <c r="B400" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C400" s="13">
         <v>1.25</v>
@@ -12211,7 +12222,7 @@
       <c r="I400" s="9"/>
       <c r="J400" s="11"/>
       <c r="K400" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
@@ -12262,7 +12273,7 @@
         <v>44743</v>
       </c>
       <c r="B403" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C403" s="13">
         <v>1.25</v>
@@ -12280,13 +12291,13 @@
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
       <c r="K403" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
@@ -12303,7 +12314,7 @@
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C405" s="13"/>
       <c r="D405" s="39"/>
@@ -12314,13 +12325,13 @@
       <c r="I405" s="9"/>
       <c r="J405" s="11"/>
       <c r="K405" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C406" s="41"/>
       <c r="D406" s="42">
@@ -12337,7 +12348,7 @@
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C407" s="13"/>
       <c r="D407" s="39">
@@ -12356,7 +12367,7 @@
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40"/>
       <c r="B408" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C408" s="13"/>
       <c r="D408" s="39">
@@ -12397,7 +12408,7 @@
         <v>44805</v>
       </c>
       <c r="B410" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C410" s="13">
         <v>1.25</v>
@@ -12441,7 +12452,7 @@
         <v>44866</v>
       </c>
       <c r="B412" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C412" s="13">
         <v>1.25</v>
@@ -12465,7 +12476,7 @@
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="52"/>
       <c r="B413" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C413" s="13"/>
       <c r="D413" s="42">
@@ -12481,7 +12492,7 @@
       <c r="I413" s="53"/>
       <c r="J413" s="12"/>
       <c r="K413" s="56" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
@@ -12489,7 +12500,7 @@
         <v>44896</v>
       </c>
       <c r="B414" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C414" s="13">
         <v>1.25</v>
@@ -12507,13 +12518,13 @@
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
       <c r="K414" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
@@ -12534,7 +12545,7 @@
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B416" s="20"/>
       <c r="C416" s="13"/>
@@ -12555,7 +12566,7 @@
         <v>44927</v>
       </c>
       <c r="B417" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C417" s="13">
         <v>1.25</v>
@@ -12599,7 +12610,7 @@
         <v>44986</v>
       </c>
       <c r="B419" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C419" s="13">
         <v>1.25</v>
@@ -12623,7 +12634,7 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C420" s="13"/>
       <c r="D420" s="39"/>
@@ -12637,7 +12648,7 @@
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
       <c r="K420" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
@@ -12645,7 +12656,7 @@
         <v>45017</v>
       </c>
       <c r="B421" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C421" s="13">
         <v>1.25</v>
@@ -12661,13 +12672,13 @@
       <c r="I421" s="9"/>
       <c r="J421" s="11"/>
       <c r="K421" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
@@ -12691,7 +12702,7 @@
         <v>45047</v>
       </c>
       <c r="B423" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C423" s="13"/>
       <c r="D423" s="39"/>
@@ -12707,13 +12718,13 @@
       <c r="I423" s="9"/>
       <c r="J423" s="11"/>
       <c r="K423" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40"/>
       <c r="B424" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C424" s="13"/>
       <c r="D424" s="39"/>
@@ -12727,16 +12738,18 @@
       <c r="I424" s="9"/>
       <c r="J424" s="11"/>
       <c r="K424" s="20" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A425" s="40"/>
+      <c r="B425" s="20" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A425" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B425" s="20"/>
       <c r="C425" s="13"/>
-      <c r="D425" s="39"/>
+      <c r="D425" s="39">
+        <v>5</v>
+      </c>
       <c r="E425" s="9"/>
       <c r="F425" s="20"/>
       <c r="G425" s="13" t="str">
@@ -12746,11 +12759,13 @@
       <c r="H425" s="39"/>
       <c r="I425" s="9"/>
       <c r="J425" s="11"/>
-      <c r="K425" s="20"/>
+      <c r="K425" s="20" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B426" s="20"/>
       <c r="C426" s="13"/>
@@ -12768,7 +12783,7 @@
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B427" s="20"/>
       <c r="C427" s="13"/>
@@ -12786,7 +12801,7 @@
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13"/>
@@ -12804,7 +12819,7 @@
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13"/>
@@ -12822,7 +12837,7 @@
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B430" s="20"/>
       <c r="C430" s="13"/>
@@ -12840,7 +12855,7 @@
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B431" s="20"/>
       <c r="C431" s="13"/>
@@ -12858,7 +12873,7 @@
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B432" s="20"/>
       <c r="C432" s="13"/>
@@ -12876,7 +12891,7 @@
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B433" s="20"/>
       <c r="C433" s="13"/>
@@ -12894,7 +12909,7 @@
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13"/>
@@ -12912,7 +12927,7 @@
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13"/>
@@ -12930,7 +12945,7 @@
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13"/>
@@ -12947,7 +12962,9 @@
       <c r="K436" s="20"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A437" s="40"/>
+      <c r="A437" s="40">
+        <v>45413</v>
+      </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
       <c r="D437" s="39"/>
@@ -12995,20 +13012,36 @@
       <c r="K439" s="20"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A440" s="52"/>
-      <c r="B440" s="15"/>
-      <c r="C440" s="41"/>
-      <c r="D440" s="42"/>
-      <c r="E440" s="53"/>
-      <c r="F440" s="15"/>
-      <c r="G440" s="41" t="str">
+      <c r="A440" s="40"/>
+      <c r="B440" s="20"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="39"/>
+      <c r="E440" s="9"/>
+      <c r="F440" s="20"/>
+      <c r="G440" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H440" s="42"/>
-      <c r="I440" s="53"/>
-      <c r="J440" s="12"/>
-      <c r="K440" s="15"/>
+      <c r="H440" s="39"/>
+      <c r="I440" s="9"/>
+      <c r="J440" s="11"/>
+      <c r="K440" s="20"/>
+    </row>
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A441" s="52"/>
+      <c r="B441" s="15"/>
+      <c r="C441" s="41"/>
+      <c r="D441" s="42"/>
+      <c r="E441" s="53"/>
+      <c r="F441" s="15"/>
+      <c r="G441" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H441" s="42"/>
+      <c r="I441" s="53"/>
+      <c r="J441" s="12"/>
+      <c r="K441" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
+++ b/REGULAR/OJT/NEW DONE/CORTEZ, FIDELA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="216">
   <si>
     <t>PERIOD</t>
   </si>
@@ -676,6 +676,12 @@
   </si>
   <si>
     <t>TICC</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>6/26,27,29,30/2023</t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1575,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1612,7 +1618,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1676,7 +1682,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1736,7 +1742,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1802,7 +1808,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1865,7 +1871,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1963,7 +1969,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2028,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2087,7 +2093,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2130,7 +2136,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2205,7 +2211,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2391,7 +2397,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,7 +2463,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2515,7 +2521,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2581,7 +2587,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2637,7 +2643,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2712,7 +2718,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2755,7 +2761,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,7 +2827,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2877,7 +2883,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2975,7 +2981,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3038,7 +3044,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3487,7 +3493,7 @@
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="4050" topLeftCell="A413" activePane="bottomLeft"/>
       <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="D426" sqref="D426"/>
+      <selection pane="bottomLeft" activeCell="K427" sqref="K427"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,7 +3652,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>209.48100000000005</v>
+        <v>206.73100000000005</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3656,7 +3662,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>211.66700000000003</v>
+        <v>212.91700000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12704,13 +12710,15 @@
       <c r="B423" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="C423" s="13"/>
+      <c r="C423" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D423" s="39"/>
       <c r="E423" s="9"/>
       <c r="F423" s="20"/>
-      <c r="G423" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G423" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H423" s="39">
         <v>2</v>
@@ -12767,9 +12775,13 @@
       <c r="A426" s="40">
         <v>45078</v>
       </c>
-      <c r="B426" s="20"/>
+      <c r="B426" s="20" t="s">
+        <v>214</v>
+      </c>
       <c r="C426" s="13"/>
-      <c r="D426" s="39"/>
+      <c r="D426" s="39">
+        <v>4</v>
+      </c>
       <c r="E426" s="9"/>
       <c r="F426" s="20"/>
       <c r="G426" s="13" t="str">
@@ -12779,7 +12791,9 @@
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
-      <c r="K426" s="20"/>
+      <c r="K426" s="20" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
